--- a/model/Output Files/Year 12.xlsx
+++ b/model/Output Files/Year 12.xlsx
@@ -1151,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,51 +1175,6 @@
           <t>Retired Capacity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>('Diesel Generator', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned PV', 'Retired Capacity')</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Added Capacity')</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Installed Capacity')</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>('Owned Batteries', 'Retired Capacity')</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1236,33 +1191,6 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>104</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>151</v>
-      </c>
-      <c r="L2" t="n">
-        <v>163</v>
-      </c>
-      <c r="M2" t="n">
-        <v>151</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1274,37 +1202,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>104</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>151</v>
-      </c>
-      <c r="L3" t="n">
-        <v>163</v>
-      </c>
-      <c r="M3" t="n">
-        <v>151</v>
       </c>
     </row>
     <row r="4">
@@ -1314,39 +1215,12 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>104</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>151</v>
-      </c>
-      <c r="L4" t="n">
-        <v>163</v>
-      </c>
-      <c r="M4" t="n">
         <v>151</v>
       </c>
     </row>
@@ -1529,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1612,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>55.25311702887464</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1692,22 +1566,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>60.78312417100297</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -1853,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>54.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>46.8</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>18.2</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1936,31 +1810,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>55.25311702887464</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>57.2</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -2016,22 +1890,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>37.38312417100297</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2165,16 +2039,16 @@
         <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>32.5</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>32.5</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2213,25 +2087,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>10.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>29.84852000000017</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2239,23 +2113,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.5</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
         <v>19.5</v>
       </c>
       <c r="D3" t="n">
+        <v>13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>19.5</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -2290,10 +2164,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2302,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2316,10 +2190,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2331,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2370,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2385,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2489,73 +2363,73 @@
         <v>189.4909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>182.9252525252525</v>
+        <v>169.7939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>169.7939393939394</v>
+        <v>156.6626262626262</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>143.5313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>143.27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>171.584</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>192.176</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>215.342</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>261.674</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>323.45</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>392.948</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>470.1679999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>531.944</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>585.9979999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>632.3299999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>650.3480000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>639.8429494949497</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>609.6929292929293</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>491.5111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>393.0262626262626</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>314.2383838383838</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>261.7131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>222.3191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2563,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>169.7939393939394</v>
+        <v>182.9252525252525</v>
       </c>
       <c r="C3" t="n">
         <v>163.2282828282828</v>
@@ -2572,67 +2446,67 @@
         <v>150.0969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>171.584</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>233.36</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>288.0605858585859</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>380.7245858585859</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.7245858585859</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>437.3525858585859</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>437.3525858585859</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>460.5185858585859</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>486.2585858585859</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>486.2585858585859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>465.2484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>333.9353535353536</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>255.1474747474747</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>255.1474747474747</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>215.7535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2640,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>156.6626262626262</v>
+        <v>169.7939393939394</v>
       </c>
       <c r="C4" t="n">
         <v>150.0969696969697</v>
@@ -2649,67 +2523,67 @@
         <v>150.0969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.0969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>130.4</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>140.696</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>181.88</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>181.88</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>218.8892929292929</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>301.2572929292929</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>373.3292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.0161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>202.6222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3188,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.351479999999824</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 12.xlsx
+++ b/model/Output Files/Year 12.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76326.84612799999</v>
+        <v>76023.24100800102</v>
       </c>
       <c r="C2" t="n">
-        <v>30200</v>
+        <v>32200</v>
       </c>
       <c r="D2" t="n">
-        <v>9318.849550950719</v>
+        <v>9272.289645445984</v>
       </c>
       <c r="E2" t="n">
-        <v>2375</v>
+        <v>2370</v>
       </c>
       <c r="F2" t="n">
-        <v>9842.356101072233</v>
+        <v>9198.629642145857</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C4" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D4" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="H2" t="n">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="I2" t="n">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="J2" t="n">
-        <v>62.4</v>
+        <v>61.8</v>
       </c>
       <c r="K2" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>83.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>93.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="N2" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O2" t="n">
-        <v>93.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="P2" t="n">
-        <v>83.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="S2" t="n">
-        <v>31.2</v>
+        <v>30.9</v>
       </c>
       <c r="T2" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1486,37 +1486,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>55.25311702887464</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>103</v>
       </c>
       <c r="N3" t="n">
-        <v>83.2</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>25.657177838996</v>
       </c>
       <c r="P3" t="n">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>52</v>
+        <v>51.5</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30.9</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1566,25 +1566,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>60.78312417100297</v>
+        <v>31.88312417100287</v>
       </c>
       <c r="N4" t="n">
-        <v>83.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1727,40 +1727,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>12.8</v>
       </c>
       <c r="H2" t="n">
-        <v>28.6</v>
+        <v>28.2</v>
       </c>
       <c r="I2" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="J2" t="n">
-        <v>23.4</v>
+        <v>22.8</v>
       </c>
       <c r="K2" t="n">
-        <v>46.8</v>
+        <v>46.1</v>
       </c>
       <c r="L2" t="n">
-        <v>62.4</v>
+        <v>61.6</v>
       </c>
       <c r="M2" t="n">
-        <v>70.2</v>
+        <v>69.3</v>
       </c>
       <c r="N2" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O2" t="n">
-        <v>62.4</v>
+        <v>61.5</v>
       </c>
       <c r="P2" t="n">
-        <v>54.6</v>
+        <v>53.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.8</v>
+        <v>46.1</v>
       </c>
       <c r="R2" t="n">
-        <v>18.2</v>
+        <v>17.7</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1810,34 +1810,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>55.25311702887464</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>93.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="N3" t="n">
-        <v>57.2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>25.657177838996</v>
       </c>
       <c r="P3" t="n">
-        <v>23.4</v>
+        <v>22.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>26</v>
+        <v>25.5</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30.9</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,25 +1890,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.6</v>
+        <v>41.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>37.38312417100297</v>
+        <v>8.483124171002865</v>
       </c>
       <c r="N4" t="n">
-        <v>83.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>72.8</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="T2" t="n">
-        <v>29.84852000000017</v>
+        <v>21.70772000002855</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>189.4909090909091</v>
+        <v>187.8909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>169.7939393939394</v>
+        <v>168.1939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>156.6626262626262</v>
+        <v>155.0626262626263</v>
       </c>
       <c r="E2" t="n">
-        <v>143.5313131313131</v>
+        <v>141.9313131313131</v>
       </c>
       <c r="F2" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="G2" t="n">
-        <v>143.27</v>
+        <v>141.472</v>
       </c>
       <c r="H2" t="n">
-        <v>171.584</v>
+        <v>169.39</v>
       </c>
       <c r="I2" t="n">
-        <v>192.176</v>
+        <v>189.487</v>
       </c>
       <c r="J2" t="n">
-        <v>215.342</v>
+        <v>212.059</v>
       </c>
       <c r="K2" t="n">
-        <v>261.674</v>
+        <v>257.698</v>
       </c>
       <c r="L2" t="n">
-        <v>323.45</v>
+        <v>318.682</v>
       </c>
       <c r="M2" t="n">
-        <v>392.948</v>
+        <v>387.289</v>
       </c>
       <c r="N2" t="n">
-        <v>470.1679999999999</v>
+        <v>463.519</v>
       </c>
       <c r="O2" t="n">
-        <v>531.944</v>
+        <v>524.404</v>
       </c>
       <c r="P2" t="n">
-        <v>585.9979999999999</v>
+        <v>577.6660000000288</v>
       </c>
       <c r="Q2" t="n">
-        <v>632.3299999999999</v>
+        <v>623.3050000000288</v>
       </c>
       <c r="R2" t="n">
-        <v>650.3480000000001</v>
+        <v>640.8280000000289</v>
       </c>
       <c r="S2" t="n">
-        <v>639.8429494949497</v>
+        <v>630.019919191948</v>
       </c>
       <c r="T2" t="n">
-        <v>609.6929292929293</v>
+        <v>608.0929292929293</v>
       </c>
       <c r="U2" t="n">
-        <v>491.5111111111111</v>
+        <v>489.9111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>393.0262626262626</v>
+        <v>391.4262626262627</v>
       </c>
       <c r="W2" t="n">
-        <v>314.2383838383838</v>
+        <v>312.6383838383838</v>
       </c>
       <c r="X2" t="n">
-        <v>261.7131313131313</v>
+        <v>260.1131313131313</v>
       </c>
       <c r="Y2" t="n">
-        <v>222.3191919191919</v>
+        <v>220.7191919191919</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>182.9252525252525</v>
+        <v>181.3252525252525</v>
       </c>
       <c r="C3" t="n">
-        <v>163.2282828282828</v>
+        <v>161.6282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="E3" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="F3" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="G3" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="H3" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="I3" t="n">
-        <v>171.584</v>
+        <v>128.8</v>
       </c>
       <c r="J3" t="n">
-        <v>233.36</v>
+        <v>128.8</v>
       </c>
       <c r="K3" t="n">
-        <v>288.0605858585859</v>
+        <v>210.376</v>
       </c>
       <c r="L3" t="n">
-        <v>380.7245858585859</v>
+        <v>302.149</v>
       </c>
       <c r="M3" t="n">
-        <v>380.7245858585859</v>
+        <v>380.953</v>
       </c>
       <c r="N3" t="n">
-        <v>437.3525858585859</v>
+        <v>380.953</v>
       </c>
       <c r="O3" t="n">
-        <v>437.3525858585859</v>
+        <v>406.353606060606</v>
       </c>
       <c r="P3" t="n">
-        <v>460.5185858585859</v>
+        <v>429.024606060606</v>
       </c>
       <c r="Q3" t="n">
-        <v>486.2585858585859</v>
+        <v>454.269606060606</v>
       </c>
       <c r="R3" t="n">
-        <v>486.2585858585859</v>
+        <v>484.860606060606</v>
       </c>
       <c r="S3" t="n">
-        <v>465.2484848484848</v>
+        <v>463.6484848484848</v>
       </c>
       <c r="T3" t="n">
-        <v>333.9353535353536</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="U3" t="n">
-        <v>333.9353535353536</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="V3" t="n">
-        <v>333.9353535353536</v>
+        <v>332.3353535353535</v>
       </c>
       <c r="W3" t="n">
-        <v>255.1474747474747</v>
+        <v>253.5474747474748</v>
       </c>
       <c r="X3" t="n">
-        <v>255.1474747474747</v>
+        <v>253.5474747474748</v>
       </c>
       <c r="Y3" t="n">
-        <v>215.7535353535353</v>
+        <v>214.1535353535353</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>169.7939393939394</v>
+        <v>168.1939393939394</v>
       </c>
       <c r="C4" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="D4" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="E4" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="F4" t="n">
-        <v>150.0969696969697</v>
+        <v>148.4969696969697</v>
       </c>
       <c r="G4" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="H4" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="I4" t="n">
-        <v>130.4</v>
+        <v>128.8</v>
       </c>
       <c r="J4" t="n">
-        <v>140.696</v>
+        <v>128.8</v>
       </c>
       <c r="K4" t="n">
-        <v>181.88</v>
+        <v>169.588</v>
       </c>
       <c r="L4" t="n">
-        <v>181.88</v>
+        <v>169.588</v>
       </c>
       <c r="M4" t="n">
-        <v>218.8892929292929</v>
+        <v>177.9862929292929</v>
       </c>
       <c r="N4" t="n">
-        <v>301.2572929292929</v>
+        <v>259.5622929292929</v>
       </c>
       <c r="O4" t="n">
-        <v>373.3292929292929</v>
+        <v>330.9412929292929</v>
       </c>
       <c r="P4" t="n">
-        <v>373.3292929292929</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="Q4" t="n">
-        <v>373.3292929292929</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="R4" t="n">
-        <v>373.3292929292929</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="S4" t="n">
-        <v>373.3292929292929</v>
+        <v>371.7292929292929</v>
       </c>
       <c r="T4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="U4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="V4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="W4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="X4" t="n">
-        <v>242.0161616161616</v>
+        <v>240.4161616161616</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6222222222222</v>
+        <v>201.0222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.351479999999824</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>9.692279999971451</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>

--- a/model/Output Files/Year 12.xlsx
+++ b/model/Output Files/Year 12.xlsx
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>76023.24100800102</v>
+        <v>77388.6679767371</v>
       </c>
       <c r="C2" t="n">
-        <v>32200</v>
+        <v>28000</v>
       </c>
       <c r="D2" t="n">
-        <v>9272.289645445984</v>
+        <v>7066.221906540153</v>
       </c>
       <c r="E2" t="n">
-        <v>2370</v>
+        <v>750</v>
       </c>
       <c r="F2" t="n">
-        <v>9198.629642145857</v>
+        <v>11883.10222434213</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1215,13 +1215,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1403,46 +1403,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>61.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>92.7</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>92.7</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1492,31 +1492,31 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92.7</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25.657177838996</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.5</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30.9</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1569,22 +1569,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>31.88312417100287</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -1727,46 +1727,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.8</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>28.2</v>
+        <v>81.93427201306113</v>
       </c>
       <c r="I2" t="n">
-        <v>20.3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.8</v>
+        <v>19.5</v>
       </c>
       <c r="K2" t="n">
-        <v>46.1</v>
+        <v>150</v>
       </c>
       <c r="L2" t="n">
-        <v>61.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>69.3</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>61.5</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>53.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>46.1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>17.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1816,28 +1816,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>82.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>92.7</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79.59999999999999</v>
+        <v>124.9307927762477</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>25.657177838996</v>
+        <v>140</v>
       </c>
       <c r="P3" t="n">
-        <v>22.9</v>
+        <v>20.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.5</v>
+        <v>23</v>
       </c>
       <c r="R3" t="n">
-        <v>30.9</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1890,31 +1890,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>8.483124171002865</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>82.40000000000001</v>
+        <v>145.3831241710019</v>
       </c>
       <c r="O4" t="n">
-        <v>72.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>41.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.7</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>21.70772000002855</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2360,76 +2360,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>187.8909090909091</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>168.1939393939394</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>155.0626262626263</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>141.9313131313131</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>141.472</v>
+        <v>170.193</v>
       </c>
       <c r="H2" t="n">
-        <v>169.39</v>
+        <v>251.3079292929305</v>
       </c>
       <c r="I2" t="n">
-        <v>189.487</v>
+        <v>251.3079292929305</v>
       </c>
       <c r="J2" t="n">
-        <v>212.059</v>
+        <v>270.6129292929305</v>
       </c>
       <c r="K2" t="n">
-        <v>257.698</v>
+        <v>419.1129292929305</v>
       </c>
       <c r="L2" t="n">
-        <v>318.682</v>
+        <v>419.1129292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>387.289</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>463.519</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>524.404</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>577.6660000000288</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>623.3050000000288</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>640.8280000000289</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>630.019919191948</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>608.0929292929293</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>489.9111111111111</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>391.4262626262627</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>312.6383838383838</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>260.1131313131313</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>220.7191919191919</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2437,76 +2437,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>181.3252525252525</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>161.6282828282828</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="J3" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="K3" t="n">
-        <v>210.376</v>
+        <v>120</v>
       </c>
       <c r="L3" t="n">
-        <v>302.149</v>
+        <v>120</v>
       </c>
       <c r="M3" t="n">
-        <v>380.953</v>
+        <v>243.6814848484853</v>
       </c>
       <c r="N3" t="n">
-        <v>380.953</v>
+        <v>243.6814848484853</v>
       </c>
       <c r="O3" t="n">
-        <v>406.353606060606</v>
+        <v>382.2814848484853</v>
       </c>
       <c r="P3" t="n">
-        <v>429.024606060606</v>
+        <v>402.3784848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>454.269606060606</v>
+        <v>425.1484848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>484.860606060606</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>463.6484848484848</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>332.3353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>332.3353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>332.3353535353535</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>253.5474747474748</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>253.5474747474748</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>214.1535353535353</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2514,76 +2514,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>168.1939393939394</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>148.4969696969697</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>128.8</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>128.8</v>
+        <v>149.7</v>
       </c>
       <c r="K4" t="n">
-        <v>169.588</v>
+        <v>149.7</v>
       </c>
       <c r="L4" t="n">
-        <v>169.588</v>
+        <v>149.7</v>
       </c>
       <c r="M4" t="n">
-        <v>177.9862929292929</v>
+        <v>149.7</v>
       </c>
       <c r="N4" t="n">
-        <v>259.5622929292929</v>
+        <v>293.6292929292919</v>
       </c>
       <c r="O4" t="n">
-        <v>330.9412929292929</v>
+        <v>293.6292929292919</v>
       </c>
       <c r="P4" t="n">
-        <v>371.7292929292929</v>
+        <v>293.6292929292919</v>
       </c>
       <c r="Q4" t="n">
-        <v>371.7292929292929</v>
+        <v>353.0292929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>371.7292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>371.7292929292929</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>240.4161616161616</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.0222222222222</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>145.3831241710019</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3347,46 +3347,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>33.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>9.692279999971451</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3445,22 +3445,22 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>48.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3671,10 +3671,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>55.43427201306113</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3683,19 +3683,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>84.3</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>31.2</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3707,10 +3707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>13.2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3766,13 +3766,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>148.3307927762477</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 12.xlsx
+++ b/model/Output Files/Year 12.xlsx
@@ -20,6 +20,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1295,6 +1296,330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>291.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>327</v>
+      </c>
+      <c r="J2" t="n">
+        <v>388.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>502</v>
+      </c>
+      <c r="L2" t="n">
+        <v>596</v>
+      </c>
+      <c r="M2" t="n">
+        <v>670.5</v>
+      </c>
+      <c r="N2" t="n">
+        <v>745</v>
+      </c>
+      <c r="O2" t="n">
+        <v>651</v>
+      </c>
+      <c r="P2" t="n">
+        <v>576.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>502</v>
+      </c>
+      <c r="R2" t="n">
+        <v>320.5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>139</v>
+      </c>
+      <c r="T2" t="n">
+        <v>32</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-117</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-97.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-52</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-13</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>324</v>
+      </c>
+      <c r="J3" t="n">
+        <v>486</v>
+      </c>
+      <c r="K3" t="n">
+        <v>648</v>
+      </c>
+      <c r="L3" t="n">
+        <v>729</v>
+      </c>
+      <c r="M3" t="n">
+        <v>751.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>583</v>
+      </c>
+      <c r="O3" t="n">
+        <v>567</v>
+      </c>
+      <c r="P3" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>340</v>
+      </c>
+      <c r="R3" t="n">
+        <v>243</v>
+      </c>
+      <c r="S3" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-78</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-32.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-19.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>81</v>
+      </c>
+      <c r="K4" t="n">
+        <v>324</v>
+      </c>
+      <c r="L4" t="n">
+        <v>567</v>
+      </c>
+      <c r="M4" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>648</v>
+      </c>
+      <c r="O4" t="n">
+        <v>567</v>
+      </c>
+      <c r="P4" t="n">
+        <v>324</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>162</v>
+      </c>
+      <c r="R4" t="n">
+        <v>81</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-130</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>

--- a/model/Output Files/Year 12.xlsx
+++ b/model/Output Files/Year 12.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.6679767371</v>
+        <v>77388.66797673708</v>
       </c>
       <c r="C2" t="n">
         <v>28000</v>
       </c>
       <c r="D2" t="n">
-        <v>7066.221906540153</v>
+        <v>10661.60663177228</v>
       </c>
       <c r="E2" t="n">
-        <v>750</v>
+        <v>1620</v>
       </c>
       <c r="F2" t="n">
-        <v>11883.10222434213</v>
+        <v>10606.71297672965</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>50.7</v>
+        <v>62.3</v>
       </c>
       <c r="H2" t="n">
-        <v>81.93427201306113</v>
+        <v>49.7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>141.8</v>
       </c>
       <c r="J2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>150</v>
+        <v>32.73427201306111</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>28.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>57.8</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>124.9307927762477</v>
+        <v>99.83079277624756</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="O3" t="n">
-        <v>140</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
-        <v>20.3</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>15.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>145.3831241710019</v>
+        <v>51.58312417100181</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>15.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>170.193</v>
+        <v>181.677</v>
       </c>
       <c r="H2" t="n">
-        <v>251.3079292929305</v>
+        <v>230.88</v>
       </c>
       <c r="I2" t="n">
-        <v>251.3079292929305</v>
+        <v>371.262</v>
       </c>
       <c r="J2" t="n">
-        <v>270.6129292929305</v>
+        <v>371.262</v>
       </c>
       <c r="K2" t="n">
-        <v>419.1129292929305</v>
+        <v>403.6689292929305</v>
       </c>
       <c r="L2" t="n">
-        <v>419.1129292929305</v>
+        <v>429.0129292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>567.6129292929305</v>
+        <v>457.5249292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>567.6129292929305</v>
+        <v>489.2049292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>567.6129292929305</v>
+        <v>509.9949292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>567.6129292929305</v>
+        <v>527.6169292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>567.6129292929305</v>
+        <v>542.0709292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>567.6129292929305</v>
+        <v>542.0709292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>567.6129292929305</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,31 +2783,31 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>120</v>
+        <v>142.968</v>
       </c>
       <c r="J3" t="n">
-        <v>120</v>
+        <v>177.42</v>
       </c>
       <c r="K3" t="n">
-        <v>120</v>
+        <v>223.356</v>
       </c>
       <c r="L3" t="n">
-        <v>120</v>
+        <v>275.034</v>
       </c>
       <c r="M3" t="n">
-        <v>243.6814848484853</v>
+        <v>373.8664848484851</v>
       </c>
       <c r="N3" t="n">
-        <v>243.6814848484853</v>
+        <v>394.0624848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>382.2814848484853</v>
+        <v>434.2564848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>402.3784848484852</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>425.1484848484852</v>
+        <v>437.6224848484852</v>
       </c>
       <c r="R3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>149.7</v>
+        <v>135.642</v>
       </c>
       <c r="K4" t="n">
-        <v>149.7</v>
+        <v>158.61</v>
       </c>
       <c r="L4" t="n">
-        <v>149.7</v>
+        <v>198.804</v>
       </c>
       <c r="M4" t="n">
-        <v>149.7</v>
+        <v>221.574</v>
       </c>
       <c r="N4" t="n">
-        <v>293.6292929292919</v>
+        <v>272.6412929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>293.6292929292919</v>
+        <v>312.8352929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>293.6292929292919</v>
+        <v>335.8032929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>353.0292929292918</v>
+        <v>347.2872929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>18.13427201306111</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>145.3831241710019</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3678,34 +3678,34 @@
         <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>89.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33.8</v>
+        <v>4.8</v>
       </c>
       <c r="S2" t="n">
         <v>28.4</v>
@@ -3770,19 +3770,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>48.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>18.4</v>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>10</v>
@@ -3999,28 +3999,28 @@
         <v>38.8</v>
       </c>
       <c r="H2" t="n">
-        <v>55.43427201306113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>95.2</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>84.3</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>13.2</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>22.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4091,13 +4091,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>148.3307927762477</v>
+        <v>65.23079277624757</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>23.2</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.183124171001808</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 12.xlsx
+++ b/model/Output Files/Year 12.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673712</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>28000</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>10661.60663177228</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10606.71297673013</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,50 +1245,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Type 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Type 3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type 4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type 5</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -1296,249 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
-      </c>
-      <c r="I2" t="n">
-        <v>15</v>
-      </c>
-      <c r="J2" t="n">
-        <v>15</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15</v>
-      </c>
-      <c r="L2" t="n">
-        <v>15</v>
-      </c>
-      <c r="M2" t="n">
-        <v>15</v>
-      </c>
-      <c r="N2" t="n">
-        <v>15</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15</v>
-      </c>
-      <c r="P2" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>34</v>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>34</v>
-      </c>
-      <c r="F3" t="n">
-        <v>34</v>
-      </c>
-      <c r="G3" t="n">
-        <v>34</v>
-      </c>
-      <c r="H3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I3" t="n">
-        <v>34</v>
-      </c>
-      <c r="J3" t="n">
-        <v>34</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34</v>
-      </c>
-      <c r="L3" t="n">
-        <v>34</v>
-      </c>
-      <c r="M3" t="n">
-        <v>34</v>
-      </c>
-      <c r="N3" t="n">
-        <v>34</v>
-      </c>
-      <c r="O3" t="n">
-        <v>34</v>
-      </c>
-      <c r="P3" t="n">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1639,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1716,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1731,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1779,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1793,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1808,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1817,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1862,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1978,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2061,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2141,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2302,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>127.7</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28.8</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.634272013061266</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>43.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2385,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>111.6307927762476</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>34.6</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>20.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2465,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>55.78312417100177</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2668,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2688,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2703,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2742,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2751,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2765,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2780,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2819,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2834,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909105</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313138</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>123.762</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>250.185</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>250.185</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>398.6849999999999</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>413.139</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>438.4829999999999</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>466.9949999999999</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>498.675</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>519.4649999999999</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>537.0869999999999</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>551.5409999999998</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>556.1289292929305</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>556.1289292929305</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262643</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>303.8383838383849</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131331</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>142.968</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>177.42</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>287.9344848484851</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>339.6124848484851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>373.8664848484851</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>394.0624848484852</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>434.2564848484852</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>434.6524848484852</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>437.6224848484852</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>135.642</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>158.61</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>213.8352929292918</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>236.6052929292918</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>282.5412929292918</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>322.7352929292918</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>345.7032929292918</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>357.1872929292918</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3607,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>154.2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3637,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3687,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>65.23079277624757</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3767,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>15.18312417100178</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3925,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3958,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4035,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4085,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4249,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -4279,13 +4029,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>9.434272013061271</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4359,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>

--- a/model/Output Files/Year 12.xlsx
+++ b/model/Output Files/Year 12.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>77388.66797673708</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>28000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>10661.60663177228</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1620</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>10606.71297672965</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1276,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>142.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>291.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>327</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>388.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>670.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>745</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>576.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>320.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,46 +1481,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>729</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>751.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>333.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1567,37 +1567,37 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>589.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>648</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>-39</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,43 +2052,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>62.3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49.7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>141.8</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>32.73427201306111</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>57.8</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>46.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>99.83079277624756</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>17.4</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>51.58312417100181</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>40.6</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2418,19 +2418,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>97.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>179.0909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>159.3939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.1313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>181.677</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>230.88</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>371.262</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>371.262</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>403.6689292929305</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>429.0129292929305</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>457.5249292929305</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>489.2049292929305</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>509.9949292929305</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>527.6169292929305</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>542.0709292929305</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>542.0709292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>599.2929292929305</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>382.6262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>303.838383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>251.3131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>211.9191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>172.5252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>152.8282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>142.968</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>177.42</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>223.356</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>275.034</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>373.8664848484851</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>394.0624848484852</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>434.2564848484852</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>434.6524848484852</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>437.6224848484852</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>454.8484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>323.5353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>244.7474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.3535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>159.3939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>139.6969696969689</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>135.642</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>158.61</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>198.804</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>221.574</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>272.6412929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>312.8352929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>335.8032929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>347.2872929292918</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>362.9292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.6161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>192.2222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>18.13427201306111</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>28.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,13 +3996,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>38.8</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>95.2</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>22.4</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>65.23079277624757</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>5.183124171001808</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 12.xlsx
+++ b/model/Output Files/Year 12.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673708</v>
+        <v>77388.66797673711</v>
       </c>
       <c r="C2" t="n">
         <v>28000</v>
       </c>
       <c r="D2" t="n">
-        <v>10661.60663177228</v>
+        <v>14805.93863177227</v>
       </c>
       <c r="E2" t="n">
-        <v>1620</v>
+        <v>750</v>
       </c>
       <c r="F2" t="n">
-        <v>10606.71297672965</v>
+        <v>9670.775221064889</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1811,37 +1811,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.3</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>49.7</v>
+        <v>26.5</v>
       </c>
       <c r="I2" t="n">
-        <v>141.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>32.73427201306111</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>28.8</v>
+        <v>150</v>
       </c>
       <c r="N2" t="n">
+        <v>150</v>
+      </c>
+      <c r="O2" t="n">
+        <v>19.63427201306117</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="S2" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="T2" t="n">
         <v>32</v>
-      </c>
-      <c r="O2" t="n">
-        <v>21</v>
-      </c>
-      <c r="P2" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>34.8</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52.2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99.83079277624756</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>20.4</v>
+        <v>53</v>
       </c>
       <c r="O3" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="R3" t="n">
-        <v>17.4</v>
+        <v>144.2307927762477</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.8</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>23.2</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>125.3831241710019</v>
       </c>
       <c r="M4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>51.58312417100181</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.6</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>23.2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.6</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>15.8</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2700,43 +2700,43 @@
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>181.677</v>
+        <v>170.193</v>
       </c>
       <c r="H2" t="n">
-        <v>230.88</v>
+        <v>196.428</v>
       </c>
       <c r="I2" t="n">
-        <v>371.262</v>
+        <v>196.428</v>
       </c>
       <c r="J2" t="n">
-        <v>371.262</v>
+        <v>196.428</v>
       </c>
       <c r="K2" t="n">
-        <v>403.6689292929305</v>
+        <v>196.428</v>
       </c>
       <c r="L2" t="n">
-        <v>429.0129292929305</v>
+        <v>196.428</v>
       </c>
       <c r="M2" t="n">
-        <v>457.5249292929305</v>
+        <v>344.928</v>
       </c>
       <c r="N2" t="n">
-        <v>489.2049292929305</v>
+        <v>493.428</v>
       </c>
       <c r="O2" t="n">
-        <v>509.9949292929305</v>
+        <v>512.8659292929306</v>
       </c>
       <c r="P2" t="n">
+        <v>512.8659292929306</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>512.8659292929306</v>
+      </c>
+      <c r="R2" t="n">
         <v>527.6169292929305</v>
       </c>
-      <c r="Q2" t="n">
-        <v>542.0709292929305</v>
-      </c>
-      <c r="R2" t="n">
-        <v>542.0709292929305</v>
-      </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>567.6129292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2783,34 +2783,34 @@
         <v>120</v>
       </c>
       <c r="I3" t="n">
-        <v>142.968</v>
+        <v>120</v>
       </c>
       <c r="J3" t="n">
-        <v>177.42</v>
+        <v>179.4</v>
       </c>
       <c r="K3" t="n">
-        <v>223.356</v>
+        <v>179.4</v>
       </c>
       <c r="L3" t="n">
-        <v>275.034</v>
+        <v>179.4</v>
       </c>
       <c r="M3" t="n">
-        <v>373.8664848484851</v>
+        <v>179.4</v>
       </c>
       <c r="N3" t="n">
-        <v>394.0624848484852</v>
+        <v>231.87</v>
       </c>
       <c r="O3" t="n">
-        <v>434.2564848484852</v>
+        <v>231.87</v>
       </c>
       <c r="P3" t="n">
-        <v>434.6524848484852</v>
+        <v>231.87</v>
       </c>
       <c r="Q3" t="n">
-        <v>437.6224848484852</v>
+        <v>254.64</v>
       </c>
       <c r="R3" t="n">
-        <v>454.8484848484852</v>
+        <v>397.4284848484853</v>
       </c>
       <c r="S3" t="n">
         <v>454.8484848484852</v>
@@ -2863,28 +2863,28 @@
         <v>120</v>
       </c>
       <c r="J4" t="n">
-        <v>135.642</v>
+        <v>149.7</v>
       </c>
       <c r="K4" t="n">
-        <v>158.61</v>
+        <v>189.3</v>
       </c>
       <c r="L4" t="n">
-        <v>198.804</v>
+        <v>313.4292929292918</v>
       </c>
       <c r="M4" t="n">
-        <v>221.574</v>
+        <v>313.4292929292918</v>
       </c>
       <c r="N4" t="n">
-        <v>272.6412929292918</v>
+        <v>313.4292929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>312.8352929292918</v>
+        <v>313.4292929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>335.8032929292918</v>
+        <v>313.4292929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>347.2872929292918</v>
+        <v>333.2292929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>18.13427201306111</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3458,10 +3458,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>144.2307927762477</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>125.3831241710019</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3678,34 +3678,34 @@
         <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>31.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>39</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20.8</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="R2" t="n">
-        <v>4.8</v>
+        <v>48.7</v>
       </c>
       <c r="S2" t="n">
         <v>28.4</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -3767,19 +3767,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>28.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -3838,7 +3838,7 @@
         <v>10</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -3856,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
         <v>10</v>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>95.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -4014,13 +4014,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>84.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>50.83427201306121</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>53.6</v>
       </c>
       <c r="T2" t="n">
-        <v>22.4</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>65.23079277624757</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.6</v>
+        <v>33.6</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,10 +4168,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="N4" t="n">
-        <v>5.183124171001808</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 12.xlsx
+++ b/model/Output Files/Year 12.xlsx
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673711</v>
+        <v>80576.48655035206</v>
       </c>
       <c r="C2" t="n">
-        <v>28000</v>
+        <v>35800</v>
       </c>
       <c r="D2" t="n">
-        <v>14805.93863177227</v>
+        <v>16153.46139577595</v>
       </c>
       <c r="E2" t="n">
-        <v>750</v>
+        <v>955</v>
       </c>
       <c r="F2" t="n">
-        <v>9670.775221064889</v>
+        <v>7908.651097949213</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="C4" t="n">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="D4" t="n">
-        <v>140</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1404,46 +1404,46 @@
         <v>-13</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5</v>
+        <v>22.1</v>
       </c>
       <c r="H2" t="n">
-        <v>291.5</v>
+        <v>50.7</v>
       </c>
       <c r="I2" t="n">
-        <v>327</v>
+        <v>26</v>
       </c>
       <c r="J2" t="n">
-        <v>388.5</v>
+        <v>27.3</v>
       </c>
       <c r="K2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>596</v>
+        <v>114.4</v>
       </c>
       <c r="M2" t="n">
-        <v>670.5</v>
+        <v>128.7</v>
       </c>
       <c r="N2" t="n">
-        <v>745</v>
+        <v>143</v>
       </c>
       <c r="O2" t="n">
-        <v>651</v>
+        <v>109.2</v>
       </c>
       <c r="P2" t="n">
-        <v>576.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>502</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>320.5</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
-        <v>139</v>
+        <v>-41.60000000000001</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>-117</v>
@@ -1487,37 +1487,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>486</v>
+        <v>124.8</v>
       </c>
       <c r="K3" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="L3" t="n">
-        <v>729</v>
+        <v>187.2</v>
       </c>
       <c r="M3" t="n">
-        <v>751.5</v>
+        <v>149.5</v>
       </c>
       <c r="N3" t="n">
-        <v>583</v>
+        <v>101.4</v>
       </c>
       <c r="O3" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P3" t="n">
-        <v>333.5</v>
+        <v>32.49999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>340</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>243</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>57.99999999999999</v>
+        <v>-62.40000000000001</v>
       </c>
       <c r="T3" t="n">
         <v>-130</v>
@@ -1567,31 +1567,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="L4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="M4" t="n">
-        <v>589.5</v>
+        <v>107.9</v>
       </c>
       <c r="N4" t="n">
-        <v>648</v>
+        <v>166.4</v>
       </c>
       <c r="O4" t="n">
-        <v>567</v>
+        <v>145.6</v>
       </c>
       <c r="P4" t="n">
-        <v>324</v>
+        <v>83.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>162</v>
+        <v>41.6</v>
       </c>
       <c r="R4" t="n">
-        <v>81</v>
+        <v>20.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2052,46 +2052,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="H2" t="n">
         <v>50.7</v>
       </c>
-      <c r="H2" t="n">
-        <v>26.5</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.773798591981716</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>150</v>
+        <v>107.1</v>
       </c>
       <c r="N2" t="n">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="O2" t="n">
-        <v>19.63427201306117</v>
+        <v>88.8</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>14.9</v>
+        <v>19.5</v>
       </c>
       <c r="S2" t="n">
-        <v>40.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2135,37 +2135,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>83.2</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>8.797765534129415</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="R3" t="n">
-        <v>144.2307927762477</v>
+        <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2215,19 +2215,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>125.3831241710019</v>
+        <v>59.38312417100028</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>41.6</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="U2" t="n">
         <v>117</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="T3" t="n">
         <v>130</v>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>211.8909090909106</v>
       </c>
       <c r="C2" t="n">
-        <v>159.3939393939416</v>
+        <v>192.1939393939416</v>
       </c>
       <c r="D2" t="n">
-        <v>146.2626262626277</v>
+        <v>179.0626262626278</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>165.9313131313139</v>
       </c>
       <c r="F2" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="G2" t="n">
-        <v>170.193</v>
+        <v>174.679</v>
       </c>
       <c r="H2" t="n">
-        <v>196.428</v>
+        <v>224.872</v>
       </c>
       <c r="I2" t="n">
-        <v>196.428</v>
+        <v>241.504</v>
       </c>
       <c r="J2" t="n">
-        <v>196.428</v>
+        <v>257.839</v>
       </c>
       <c r="K2" t="n">
-        <v>196.428</v>
+        <v>258.6050606060619</v>
       </c>
       <c r="L2" t="n">
-        <v>196.428</v>
+        <v>258.6050606060619</v>
       </c>
       <c r="M2" t="n">
-        <v>344.928</v>
+        <v>364.6340606060619</v>
       </c>
       <c r="N2" t="n">
-        <v>493.428</v>
+        <v>482.4440606060619</v>
       </c>
       <c r="O2" t="n">
-        <v>512.8659292929306</v>
+        <v>570.3560606060619</v>
       </c>
       <c r="P2" t="n">
-        <v>512.8659292929306</v>
+        <v>664.3070606060619</v>
       </c>
       <c r="Q2" t="n">
-        <v>512.8659292929306</v>
+        <v>744.1010606060619</v>
       </c>
       <c r="R2" t="n">
-        <v>527.6169292929305</v>
+        <v>763.4060606060618</v>
       </c>
       <c r="S2" t="n">
-        <v>567.6129292929305</v>
+        <v>721.3858585858598</v>
       </c>
       <c r="T2" t="n">
-        <v>599.2929292929305</v>
+        <v>632.0929292929304</v>
       </c>
       <c r="U2" t="n">
-        <v>481.1111111111111</v>
+        <v>513.9111111111112</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>415.4262626262645</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>336.638383838385</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>284.1131313131332</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>244.7191919191934</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>172.5252525252518</v>
+        <v>205.3252525252518</v>
       </c>
       <c r="C3" t="n">
-        <v>152.8282828282828</v>
+        <v>185.6282828282828</v>
       </c>
       <c r="D3" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="E3" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="F3" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="H3" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="I3" t="n">
-        <v>120</v>
+        <v>235.168</v>
       </c>
       <c r="J3" t="n">
-        <v>179.4</v>
+        <v>241.108</v>
       </c>
       <c r="K3" t="n">
-        <v>179.4</v>
+        <v>249.028</v>
       </c>
       <c r="L3" t="n">
-        <v>179.4</v>
+        <v>409.408</v>
       </c>
       <c r="M3" t="n">
-        <v>179.4</v>
+        <v>409.408</v>
       </c>
       <c r="N3" t="n">
-        <v>231.87</v>
+        <v>409.408</v>
       </c>
       <c r="O3" t="n">
-        <v>231.87</v>
+        <v>418.1177878787881</v>
       </c>
       <c r="P3" t="n">
-        <v>231.87</v>
+        <v>450.2927878787881</v>
       </c>
       <c r="Q3" t="n">
-        <v>254.64</v>
+        <v>488.9027878787882</v>
       </c>
       <c r="R3" t="n">
-        <v>397.4284848484853</v>
+        <v>550.6787878787882</v>
       </c>
       <c r="S3" t="n">
-        <v>454.8484848484852</v>
+        <v>487.6484848484852</v>
       </c>
       <c r="T3" t="n">
-        <v>323.5353535353539</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="U3" t="n">
-        <v>323.5353535353539</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="V3" t="n">
-        <v>323.5353535353539</v>
+        <v>356.3353535353539</v>
       </c>
       <c r="W3" t="n">
-        <v>244.7474747474744</v>
+        <v>277.5474747474744</v>
       </c>
       <c r="X3" t="n">
-        <v>244.7474747474744</v>
+        <v>277.5474747474744</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.3535353535346</v>
+        <v>238.1535353535346</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>159.3939393939379</v>
+        <v>192.1939393939379</v>
       </c>
       <c r="C4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="D4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="E4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="F4" t="n">
-        <v>139.6969696969689</v>
+        <v>172.496969696969</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="H4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="I4" t="n">
-        <v>120</v>
+        <v>152.8</v>
       </c>
       <c r="J4" t="n">
-        <v>149.7</v>
+        <v>170.6200000000007</v>
       </c>
       <c r="K4" t="n">
-        <v>189.3</v>
+        <v>174.5800000000008</v>
       </c>
       <c r="L4" t="n">
-        <v>313.4292929292918</v>
+        <v>233.369292929291</v>
       </c>
       <c r="M4" t="n">
-        <v>313.4292929292918</v>
+        <v>233.369292929291</v>
       </c>
       <c r="N4" t="n">
-        <v>313.4292929292918</v>
+        <v>375.929292929291</v>
       </c>
       <c r="O4" t="n">
-        <v>313.4292929292918</v>
+        <v>375.929292929291</v>
       </c>
       <c r="P4" t="n">
-        <v>313.4292929292918</v>
+        <v>375.929292929291</v>
       </c>
       <c r="Q4" t="n">
-        <v>333.2292929292918</v>
+        <v>377.909292929291</v>
       </c>
       <c r="R4" t="n">
-        <v>362.9292929292918</v>
+        <v>395.7292929292918</v>
       </c>
       <c r="S4" t="n">
-        <v>362.9292929292918</v>
+        <v>395.7292929292918</v>
       </c>
       <c r="T4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="U4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="V4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="W4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="X4" t="n">
-        <v>231.6161616161605</v>
+        <v>264.4161616161605</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2222222222222</v>
+        <v>225.0222222222222</v>
       </c>
     </row>
   </sheetData>
@@ -3348,46 +3348,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.173798591981707</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>112.2</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.8</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3440,28 +3440,28 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>14.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>47.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R3" t="n">
-        <v>144.2307927762477</v>
+        <v>51</v>
       </c>
       <c r="S3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>125.3831241710019</v>
+        <v>59.38312417100028</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,46 +3672,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
-        <v>39.5</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>3.8</v>
       </c>
       <c r="J2" t="n">
-        <v>39</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>20.8</v>
+        <v>7.2</v>
       </c>
       <c r="M2" t="n">
-        <v>89.09999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="N2" t="n">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="P2" t="n">
-        <v>28.6</v>
+        <v>6.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="R2" t="n">
-        <v>48.7</v>
+        <v>3.7</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M3" t="n">
-        <v>23.4</v>
+        <v>9.1</v>
       </c>
       <c r="N3" t="n">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>18.4</v>
+        <v>0.4</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,19 +3835,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -4008,34 +4008,34 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="M2" t="n">
-        <v>84.3</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.83427201306121</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>15.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4097,19 +4097,19 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.797765534129416</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>33.6</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>16.3</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 12.xlsx
+++ b/model/Output Files/Year 12.xlsx
@@ -525,76 +525,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.3500255076014014</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1126,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>80576.48655035206</v>
+        <v>73275.79542903793</v>
       </c>
       <c r="C2" t="n">
-        <v>35800</v>
+        <v>24000</v>
       </c>
       <c r="D2" t="n">
-        <v>16153.46139577595</v>
+        <v>15383.05430669824</v>
       </c>
       <c r="E2" t="n">
-        <v>955</v>
+        <v>2025</v>
       </c>
       <c r="F2" t="n">
-        <v>7908.651097949213</v>
+        <v>9109.101369118453</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +1216,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="C4" t="n">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="D4" t="n">
-        <v>179</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>34</v>
@@ -1389,76 +1389,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-30.5</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-18.3</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-12.2</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-12.2</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-12.2</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>23.29999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>52.7</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>30.8</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>33.3</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>117.6</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>132.3</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>114</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>99.30000000000001</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>24.7</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-35.2</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-80.40000000000001</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-109.8</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-91.5</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-73.2</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-48.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-36.6</v>
       </c>
     </row>
     <row r="3">
@@ -1466,13 +1466,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-30.5</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-18.3</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-12.2</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>-18.3</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1499,28 +1499,28 @@
         <v>187.2</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>153.1</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>105.4</v>
       </c>
       <c r="O3" t="n">
         <v>145.6</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>36.89999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="R3" t="n">
         <v>62.4</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-56</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-122</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-73.2</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-36.6</v>
       </c>
     </row>
     <row r="4">
@@ -1543,10 +1543,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-30.5</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-18.3</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-18.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>145.6</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>111.5</v>
       </c>
       <c r="N4" t="n">
         <v>166.4</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-122</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-36.6</v>
       </c>
     </row>
   </sheetData>
@@ -1728,46 +1728,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>23.7</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1814,34 +1814,34 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>47.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>39.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>28.14093459851028</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>13.08262422201632</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>63.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2052,40 +2052,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>16.2</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>27.6</v>
       </c>
       <c r="I2" t="n">
-        <v>16.8</v>
+        <v>20.1</v>
       </c>
       <c r="J2" t="n">
-        <v>16.5</v>
+        <v>21.4</v>
       </c>
       <c r="K2" t="n">
-        <v>0.773798591981716</v>
+        <v>40.3</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>52.60000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>107.1</v>
+        <v>58.3</v>
       </c>
       <c r="N2" t="n">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="O2" t="n">
-        <v>88.8</v>
+        <v>51.7</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>46</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>33.65002550760139</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>17.9</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -2135,34 +2135,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>47.4</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>63.2</v>
       </c>
       <c r="L3" t="n">
-        <v>162</v>
+        <v>71.10000000000001</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>59.20000000000073</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>41.2</v>
       </c>
       <c r="O3" t="n">
-        <v>8.797765534129415</v>
+        <v>55.3</v>
       </c>
       <c r="P3" t="n">
-        <v>32.5</v>
+        <v>15.29999999999927</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>6.140934598510276</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2215,31 +2215,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>13.08262422201632</v>
       </c>
       <c r="L4" t="n">
-        <v>59.38312417100028</v>
+        <v>55.3</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>43.40000000000073</v>
       </c>
       <c r="N4" t="n">
-        <v>144</v>
+        <v>63.2</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2361,19 +2361,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>23.5</v>
       </c>
       <c r="C2" t="n">
-        <v>19.5</v>
+        <v>11.3</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>5.200000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>13</v>
+        <v>5.200000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>5.200000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -2412,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>41.6</v>
+        <v>7.900000000000006</v>
       </c>
       <c r="T2" t="n">
-        <v>88.40000000000001</v>
+        <v>57.6</v>
       </c>
       <c r="U2" t="n">
-        <v>117</v>
+        <v>102.8</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>84.5</v>
       </c>
       <c r="W2" t="n">
-        <v>78</v>
+        <v>66.2</v>
       </c>
       <c r="X2" t="n">
-        <v>52</v>
+        <v>41.8</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="C3" t="n">
-        <v>19.5</v>
+        <v>18.29999999999927</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>12.20000000000073</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5</v>
+        <v>18.29999999999927</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2489,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.4</v>
+        <v>40.59999999999964</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2501,13 +2501,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>78</v>
+        <v>73.20000000000073</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>39</v>
+        <v>36.60000000000036</v>
       </c>
     </row>
     <row r="4">
@@ -2515,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>30.5</v>
       </c>
       <c r="C4" t="n">
-        <v>19.5</v>
+        <v>18.29999999999927</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>18.29999999999927</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>39</v>
+        <v>36.60000000000036</v>
       </c>
     </row>
   </sheetData>
@@ -2685,76 +2685,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>211.8909090909106</v>
+        <v>141.9191919191918</v>
       </c>
       <c r="C2" t="n">
-        <v>192.1939393939416</v>
+        <v>130.5050505050504</v>
       </c>
       <c r="D2" t="n">
-        <v>179.0626262626278</v>
+        <v>125.2525252525251</v>
       </c>
       <c r="E2" t="n">
-        <v>165.9313131313139</v>
+        <v>119.9999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>152.8</v>
+        <v>114.7474747474746</v>
       </c>
       <c r="G2" t="n">
-        <v>174.679</v>
+        <v>130.7854747474746</v>
       </c>
       <c r="H2" t="n">
-        <v>224.872</v>
+        <v>158.1094747474746</v>
       </c>
       <c r="I2" t="n">
-        <v>241.504</v>
+        <v>178.0084747474746</v>
       </c>
       <c r="J2" t="n">
-        <v>257.839</v>
+        <v>199.1944747474746</v>
       </c>
       <c r="K2" t="n">
-        <v>258.6050606060619</v>
+        <v>239.0914747474746</v>
       </c>
       <c r="L2" t="n">
-        <v>258.6050606060619</v>
+        <v>291.1654747474746</v>
       </c>
       <c r="M2" t="n">
-        <v>364.6340606060619</v>
+        <v>348.8824747474746</v>
       </c>
       <c r="N2" t="n">
-        <v>482.4440606060619</v>
+        <v>412.2424747474746</v>
       </c>
       <c r="O2" t="n">
-        <v>570.3560606060619</v>
+        <v>463.4254747474746</v>
       </c>
       <c r="P2" t="n">
-        <v>664.3070606060619</v>
+        <v>508.9654747474746</v>
       </c>
       <c r="Q2" t="n">
-        <v>744.1010606060619</v>
+        <v>542.279</v>
       </c>
       <c r="R2" t="n">
-        <v>763.4060606060618</v>
+        <v>560</v>
       </c>
       <c r="S2" t="n">
-        <v>721.3858585858598</v>
+        <v>552.020202020202</v>
       </c>
       <c r="T2" t="n">
-        <v>632.0929292929304</v>
+        <v>493.8383838383838</v>
       </c>
       <c r="U2" t="n">
-        <v>513.9111111111112</v>
+        <v>389.9999999999999</v>
       </c>
       <c r="V2" t="n">
-        <v>415.4262626262645</v>
+        <v>304.6464646464646</v>
       </c>
       <c r="W2" t="n">
-        <v>336.638383838385</v>
+        <v>237.7777777777777</v>
       </c>
       <c r="X2" t="n">
-        <v>284.1131313131332</v>
+        <v>195.5555555555554</v>
       </c>
       <c r="Y2" t="n">
-        <v>244.7191919191934</v>
+        <v>165.6565656565655</v>
       </c>
     </row>
     <row r="3">
@@ -2762,76 +2762,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>205.3252525252518</v>
+        <v>161.2929292929286</v>
       </c>
       <c r="C3" t="n">
-        <v>185.6282828282828</v>
+        <v>142.8080808080808</v>
       </c>
       <c r="D3" t="n">
-        <v>172.496969696969</v>
+        <v>130.4848484848478</v>
       </c>
       <c r="E3" t="n">
-        <v>172.496969696969</v>
+        <v>130.4848484848478</v>
       </c>
       <c r="F3" t="n">
-        <v>172.496969696969</v>
+        <v>130.4848484848478</v>
       </c>
       <c r="G3" t="n">
-        <v>152.8</v>
+        <v>112</v>
       </c>
       <c r="H3" t="n">
-        <v>152.8</v>
+        <v>112</v>
       </c>
       <c r="I3" t="n">
-        <v>235.168</v>
+        <v>112</v>
       </c>
       <c r="J3" t="n">
-        <v>241.108</v>
+        <v>158.926</v>
       </c>
       <c r="K3" t="n">
-        <v>249.028</v>
+        <v>221.494</v>
       </c>
       <c r="L3" t="n">
-        <v>409.408</v>
+        <v>291.883</v>
       </c>
       <c r="M3" t="n">
-        <v>409.408</v>
+        <v>350.4910000000008</v>
       </c>
       <c r="N3" t="n">
-        <v>409.408</v>
+        <v>391.2790000000008</v>
       </c>
       <c r="O3" t="n">
-        <v>418.1177878787881</v>
+        <v>446.0260000000008</v>
       </c>
       <c r="P3" t="n">
-        <v>450.2927878787881</v>
+        <v>461.1730000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>488.9027878787882</v>
+        <v>467.2525252525252</v>
       </c>
       <c r="R3" t="n">
-        <v>550.6787878787882</v>
+        <v>467.2525252525252</v>
       </c>
       <c r="S3" t="n">
-        <v>487.6484848484852</v>
+        <v>426.2424242424246</v>
       </c>
       <c r="T3" t="n">
-        <v>356.3353535353539</v>
+        <v>303.0101010101014</v>
       </c>
       <c r="U3" t="n">
-        <v>356.3353535353539</v>
+        <v>303.0101010101014</v>
       </c>
       <c r="V3" t="n">
-        <v>356.3353535353539</v>
+        <v>303.0101010101014</v>
       </c>
       <c r="W3" t="n">
-        <v>277.5474747474744</v>
+        <v>229.0707070707067</v>
       </c>
       <c r="X3" t="n">
-        <v>277.5474747474744</v>
+        <v>229.0707070707067</v>
       </c>
       <c r="Y3" t="n">
-        <v>238.1535353535346</v>
+        <v>192.1010101010094</v>
       </c>
     </row>
     <row r="4">
@@ -2839,76 +2839,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>192.1939393939379</v>
+        <v>148.9696969696955</v>
       </c>
       <c r="C4" t="n">
-        <v>172.496969696969</v>
+        <v>130.4848484848478</v>
       </c>
       <c r="D4" t="n">
-        <v>172.496969696969</v>
+        <v>130.4848484848478</v>
       </c>
       <c r="E4" t="n">
-        <v>172.496969696969</v>
+        <v>130.4848484848478</v>
       </c>
       <c r="F4" t="n">
-        <v>172.496969696969</v>
+        <v>130.4848484848478</v>
       </c>
       <c r="G4" t="n">
-        <v>152.8</v>
+        <v>112</v>
       </c>
       <c r="H4" t="n">
-        <v>152.8</v>
+        <v>112</v>
       </c>
       <c r="I4" t="n">
-        <v>152.8</v>
+        <v>112</v>
       </c>
       <c r="J4" t="n">
-        <v>170.6200000000007</v>
+        <v>112</v>
       </c>
       <c r="K4" t="n">
-        <v>174.5800000000008</v>
+        <v>124.9517979797962</v>
       </c>
       <c r="L4" t="n">
-        <v>233.369292929291</v>
+        <v>179.6987979797962</v>
       </c>
       <c r="M4" t="n">
-        <v>233.369292929291</v>
+        <v>222.6647979797969</v>
       </c>
       <c r="N4" t="n">
-        <v>375.929292929291</v>
+        <v>285.2327979797969</v>
       </c>
       <c r="O4" t="n">
-        <v>375.929292929291</v>
+        <v>339.9797979797969</v>
       </c>
       <c r="P4" t="n">
-        <v>375.929292929291</v>
+        <v>339.9797979797969</v>
       </c>
       <c r="Q4" t="n">
-        <v>377.909292929291</v>
+        <v>339.9797979797969</v>
       </c>
       <c r="R4" t="n">
-        <v>395.7292929292918</v>
+        <v>339.9797979797969</v>
       </c>
       <c r="S4" t="n">
-        <v>395.7292929292918</v>
+        <v>339.9797979797969</v>
       </c>
       <c r="T4" t="n">
-        <v>264.4161616161605</v>
+        <v>216.7474747474737</v>
       </c>
       <c r="U4" t="n">
-        <v>264.4161616161605</v>
+        <v>216.7474747474737</v>
       </c>
       <c r="V4" t="n">
-        <v>264.4161616161605</v>
+        <v>216.7474747474737</v>
       </c>
       <c r="W4" t="n">
-        <v>264.4161616161605</v>
+        <v>216.7474747474737</v>
       </c>
       <c r="X4" t="n">
-        <v>264.4161616161605</v>
+        <v>216.7474747474737</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.0222222222222</v>
+        <v>179.7777777777763</v>
       </c>
     </row>
   </sheetData>
@@ -3348,40 +3348,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>23.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.173798591981707</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>98.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3440,25 +3440,25 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>14.3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>47.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>59.38312417100028</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3672,43 +3672,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3755,37 +3755,37 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>9.1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -3835,19 +3835,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -3856,10 +3856,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -4008,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -4023,16 +4023,16 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.6</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -4097,16 +4097,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.797765534129416</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -4168,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 12.xlsx
+++ b/model/Output Files/Year 12.xlsx
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>77388.66797673708</v>
+        <v>77388.66797673712</v>
       </c>
       <c r="C2" t="n">
         <v>28000</v>
@@ -1138,7 +1138,7 @@
         <v>1620</v>
       </c>
       <c r="F2" t="n">
-        <v>10606.71297672965</v>
+        <v>10606.71297673013</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,30 +1245,50 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Type 1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Type 2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Type 3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Type 4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Type 5</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="2">
@@ -1279,15 +1299,245 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>15</v>
+      </c>
+      <c r="F2" t="n">
+        <v>15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>15</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="n">
+        <v>15</v>
+      </c>
+      <c r="M2" t="n">
+        <v>15</v>
+      </c>
+      <c r="N2" t="n">
+        <v>15</v>
+      </c>
+      <c r="O2" t="n">
+        <v>15</v>
+      </c>
+      <c r="P2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>34</v>
       </c>
-      <c r="D2" t="n">
+      <c r="C3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>34</v>
+      </c>
+      <c r="F3" t="n">
+        <v>34</v>
+      </c>
+      <c r="G3" t="n">
+        <v>34</v>
+      </c>
+      <c r="H3" t="n">
+        <v>34</v>
+      </c>
+      <c r="I3" t="n">
+        <v>34</v>
+      </c>
+      <c r="J3" t="n">
+        <v>34</v>
+      </c>
+      <c r="K3" t="n">
+        <v>34</v>
+      </c>
+      <c r="L3" t="n">
+        <v>34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>34</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
+        <v>34</v>
+      </c>
+      <c r="P3" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="n">
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>11</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>11</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11</v>
+      </c>
+      <c r="M6" t="n">
+        <v>11</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>11</v>
+      </c>
+      <c r="P6" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2052,19 +2302,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>62.3</v>
+        <v>3.8</v>
       </c>
       <c r="H2" t="n">
-        <v>49.7</v>
+        <v>127.7</v>
       </c>
       <c r="I2" t="n">
-        <v>141.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K2" t="n">
-        <v>32.73427201306111</v>
+        <v>14.6</v>
       </c>
       <c r="L2" t="n">
         <v>25.6</v>
@@ -2085,13 +2335,13 @@
         <v>14.6</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>4.634272013061266</v>
       </c>
       <c r="S2" t="n">
-        <v>57.8</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>43.6</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -2141,13 +2391,13 @@
         <v>34.8</v>
       </c>
       <c r="K3" t="n">
-        <v>46.4</v>
+        <v>111.6307927762476</v>
       </c>
       <c r="L3" t="n">
         <v>52.2</v>
       </c>
       <c r="M3" t="n">
-        <v>99.83079277624756</v>
+        <v>34.6</v>
       </c>
       <c r="N3" t="n">
         <v>20.4</v>
@@ -2221,13 +2471,13 @@
         <v>23.2</v>
       </c>
       <c r="L4" t="n">
-        <v>40.6</v>
+        <v>55.78312417100177</v>
       </c>
       <c r="M4" t="n">
         <v>23</v>
       </c>
       <c r="N4" t="n">
-        <v>51.58312417100181</v>
+        <v>46.4</v>
       </c>
       <c r="O4" t="n">
         <v>40.6</v>
@@ -2239,7 +2489,7 @@
         <v>11.6</v>
       </c>
       <c r="R4" t="n">
-        <v>15.8</v>
+        <v>5.8</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2685,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>179.0909090909106</v>
+        <v>179.0909090909105</v>
       </c>
       <c r="C2" t="n">
         <v>159.3939393939416</v>
@@ -2694,49 +2944,49 @@
         <v>146.2626262626277</v>
       </c>
       <c r="E2" t="n">
-        <v>133.1313131313139</v>
+        <v>133.1313131313138</v>
       </c>
       <c r="F2" t="n">
         <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>181.677</v>
+        <v>123.762</v>
       </c>
       <c r="H2" t="n">
-        <v>230.88</v>
+        <v>250.185</v>
       </c>
       <c r="I2" t="n">
-        <v>371.262</v>
+        <v>250.185</v>
       </c>
       <c r="J2" t="n">
-        <v>371.262</v>
+        <v>398.6849999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>403.6689292929305</v>
+        <v>413.139</v>
       </c>
       <c r="L2" t="n">
-        <v>429.0129292929305</v>
+        <v>438.4829999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>457.5249292929305</v>
+        <v>466.9949999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>489.2049292929305</v>
+        <v>498.675</v>
       </c>
       <c r="O2" t="n">
-        <v>509.9949292929305</v>
+        <v>519.4649999999999</v>
       </c>
       <c r="P2" t="n">
-        <v>527.6169292929305</v>
+        <v>537.0869999999999</v>
       </c>
       <c r="Q2" t="n">
-        <v>542.0709292929305</v>
+        <v>551.5409999999998</v>
       </c>
       <c r="R2" t="n">
-        <v>542.0709292929305</v>
+        <v>556.1289292929305</v>
       </c>
       <c r="S2" t="n">
-        <v>599.2929292929305</v>
+        <v>556.1289292929305</v>
       </c>
       <c r="T2" t="n">
         <v>599.2929292929305</v>
@@ -2745,16 +2995,16 @@
         <v>481.1111111111111</v>
       </c>
       <c r="V2" t="n">
-        <v>382.6262626262645</v>
+        <v>382.6262626262643</v>
       </c>
       <c r="W2" t="n">
-        <v>303.838383838385</v>
+        <v>303.8383838383849</v>
       </c>
       <c r="X2" t="n">
-        <v>251.3131313131332</v>
+        <v>251.3131313131331</v>
       </c>
       <c r="Y2" t="n">
-        <v>211.9191919191934</v>
+        <v>211.9191919191933</v>
       </c>
     </row>
     <row r="3">
@@ -2789,10 +3039,10 @@
         <v>177.42</v>
       </c>
       <c r="K3" t="n">
-        <v>223.356</v>
+        <v>287.9344848484851</v>
       </c>
       <c r="L3" t="n">
-        <v>275.034</v>
+        <v>339.6124848484851</v>
       </c>
       <c r="M3" t="n">
         <v>373.8664848484851</v>
@@ -2869,22 +3119,22 @@
         <v>158.61</v>
       </c>
       <c r="L4" t="n">
-        <v>198.804</v>
+        <v>213.8352929292918</v>
       </c>
       <c r="M4" t="n">
-        <v>221.574</v>
+        <v>236.6052929292918</v>
       </c>
       <c r="N4" t="n">
-        <v>272.6412929292918</v>
+        <v>282.5412929292918</v>
       </c>
       <c r="O4" t="n">
-        <v>312.8352929292918</v>
+        <v>322.7352929292918</v>
       </c>
       <c r="P4" t="n">
-        <v>335.8032929292918</v>
+        <v>345.7032929292918</v>
       </c>
       <c r="Q4" t="n">
-        <v>347.2872929292918</v>
+        <v>357.1872929292918</v>
       </c>
       <c r="R4" t="n">
         <v>362.9292929292918</v>
@@ -3357,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>154.2</v>
       </c>
       <c r="K2" t="n">
-        <v>18.13427201306111</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -3387,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3437,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>65.23079277624757</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -3517,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>15.18312417100178</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -3672,16 +3922,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>19.7</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>39.5</v>
       </c>
       <c r="I2" t="n">
-        <v>48.8</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3705,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>28.4</v>
+        <v>24.2</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -3859,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -3996,13 +4246,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I2" t="n">
-        <v>95.2</v>
+        <v>2.2</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -4029,13 +4279,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>9.434272013061271</v>
       </c>
       <c r="S2" t="n">
-        <v>53.6</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>22.4</v>
+        <v>32</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4091,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>65.23079277624757</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -4171,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>5.183124171001808</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>

--- a/model/Output Files/Year 12.xlsx
+++ b/model/Output Files/Year 12.xlsx
@@ -15,12 +15,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 5" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -525,19 +523,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>122.3999999966575</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81.07799999999592</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -567,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>61.20999999993001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>61.21000000322328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>61.20999999999185</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>122.4</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -682,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>111.7600000000148</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -736,10 +734,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>69.78786528452065</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>113.8221347182706</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -757,396 +755,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>80576.48655034829</v>
-      </c>
-      <c r="C2" t="n">
-        <v>35800</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16153.46139576549</v>
-      </c>
-      <c r="E2" t="n">
-        <v>955</v>
-      </c>
-      <c r="F2" t="n">
-        <v>7908.651097951123</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1187,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1203,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>11211</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1216,13 +824,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179</v>
+        <v>5009</v>
       </c>
       <c r="C4" t="n">
-        <v>191</v>
+        <v>5215</v>
       </c>
       <c r="D4" t="n">
-        <v>179</v>
+        <v>5143</v>
       </c>
     </row>
   </sheetData>
@@ -1230,13 +838,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1296,49 +904,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="H2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="K2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="O2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
       <c r="P2" t="n">
-        <v>15</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -1346,49 +954,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="F3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>34</v>
+        <v>484</v>
       </c>
       <c r="H3" t="n">
-        <v>34</v>
+        <v>487</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="K3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="L3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="M3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="N3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="O3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4">
@@ -1396,149 +1004,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>4</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" t="n">
-        <v>11</v>
-      </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11</v>
-      </c>
-      <c r="L6" t="n">
-        <v>11</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>11</v>
-      </c>
-      <c r="P6" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1546,7 +1054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1639,76 +1147,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-32.5</v>
+        <v>-1211.51</v>
       </c>
       <c r="C2" t="n">
-        <v>-19.5</v>
+        <v>-1136.26</v>
       </c>
       <c r="D2" t="n">
-        <v>-13</v>
+        <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-13</v>
+        <v>-996.17</v>
       </c>
       <c r="F2" t="n">
-        <v>-13</v>
+        <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>22.1</v>
+        <v>-866.895</v>
       </c>
       <c r="H2" t="n">
-        <v>50.7</v>
+        <v>-775.78</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>-566.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>27.3</v>
+        <v>-390.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>80.59999999999999</v>
+        <v>-468.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4</v>
+        <v>-559.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7</v>
+        <v>-699.625</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>-920.71</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2</v>
+        <v>-1118.445</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000000001</v>
+        <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.59999999999999</v>
+        <v>-1156.31</v>
       </c>
       <c r="R2" t="n">
-        <v>19.5</v>
+        <v>-1141.46</v>
       </c>
       <c r="S2" t="n">
-        <v>-41.60000000000001</v>
+        <v>-1144.01</v>
       </c>
       <c r="T2" t="n">
-        <v>-88.40000000000001</v>
+        <v>-1289.76</v>
       </c>
       <c r="U2" t="n">
-        <v>-117</v>
+        <v>-1379.2</v>
       </c>
       <c r="V2" t="n">
-        <v>-97.5</v>
+        <v>-1346.75</v>
       </c>
       <c r="W2" t="n">
-        <v>-78</v>
+        <v>-1297.99</v>
       </c>
       <c r="X2" t="n">
-        <v>-52</v>
+        <v>-1140.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>-39</v>
+        <v>-1064.46</v>
       </c>
     </row>
     <row r="3">
@@ -1716,76 +1224,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-32.5</v>
+        <v>-879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-19.5</v>
+        <v>-811</v>
       </c>
       <c r="D3" t="n">
-        <v>-13</v>
+        <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-620.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-335.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-19.5</v>
+        <v>27.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>193.87</v>
       </c>
       <c r="I3" t="n">
-        <v>83.2</v>
+        <v>379.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>124.8</v>
+        <v>534.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4</v>
+        <v>483.6749999999999</v>
       </c>
       <c r="L3" t="n">
-        <v>187.2</v>
+        <v>452.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>149.5</v>
+        <v>367.57</v>
       </c>
       <c r="N3" t="n">
-        <v>101.4</v>
+        <v>149.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>145.6</v>
+        <v>-161.885</v>
       </c>
       <c r="P3" t="n">
-        <v>32.49999999999999</v>
+        <v>-461.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>39</v>
+        <v>-820.285</v>
       </c>
       <c r="R3" t="n">
-        <v>62.4</v>
+        <v>-932.5600000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>-62.40000000000001</v>
+        <v>-950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>-130</v>
+        <v>-1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>-1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-1173</v>
       </c>
       <c r="W3" t="n">
-        <v>-78</v>
+        <v>-1129.8</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>-39</v>
+        <v>-906</v>
       </c>
     </row>
     <row r="4">
@@ -1793,76 +1301,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-32.5</v>
+        <v>-1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>-19.5</v>
+        <v>-1086.22</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-861.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-19.5</v>
+        <v>-428.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-144.71</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.98000000000013</v>
       </c>
       <c r="J4" t="n">
-        <v>20.8</v>
+        <v>278.04</v>
       </c>
       <c r="K4" t="n">
-        <v>83.2</v>
+        <v>230.71</v>
       </c>
       <c r="L4" t="n">
-        <v>145.6</v>
+        <v>187.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>107.9</v>
+        <v>79.84499999999994</v>
       </c>
       <c r="N4" t="n">
-        <v>166.4</v>
+        <v>-180.765</v>
       </c>
       <c r="O4" t="n">
-        <v>145.6</v>
+        <v>-573.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>83.2</v>
+        <v>-991.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.6</v>
+        <v>-1263.34</v>
       </c>
       <c r="R4" t="n">
-        <v>20.8</v>
+        <v>-1258.22</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>-130</v>
+        <v>-1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>-1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>-1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>-1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>-39</v>
+        <v>-1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -1978,34 +1486,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>751.1370000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2107.668000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3475.410000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4327.446000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4450.767000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3923.85</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2948.493</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1771.338</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>706.2930000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>22.422</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -2049,46 +1557,46 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>336.33</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1790.916000005104</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>646.8</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>798.0000000017436</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6013</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>5685.337953673023</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>739.2</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>661.4490000000001</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.84400000000001</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -2129,37 +1637,37 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>504.495000001842</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>677.88</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>805.5599999995819</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>824.0400000099906</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4087.748656565572</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>6193.6</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6195.280000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>3756.952999999997</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>940.8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1297.583999999999</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1018.26</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -2296,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.248270902782679e-07</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -2305,34 +1813,34 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1282.848000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2662.290000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3495.006000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3584.010656571199</v>
       </c>
       <c r="L2" t="n">
-        <v>114.4000000006519</v>
+        <v>2976.330000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>128.7000000004656</v>
+        <v>2048.013000000113</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>808.0680000000003</v>
       </c>
       <c r="O2" t="n">
-        <v>109.2000000007218</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>94.90000000046567</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>26.57379858934278</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -2379,31 +1887,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1286.916000005104</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.000000000000028</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>166.4000000002561</v>
+        <v>1.743657519156584e-09</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5215</v>
       </c>
       <c r="M3" t="n">
-        <v>112.4977655326378</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4929.337953669746</v>
       </c>
       <c r="O3" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2427,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>-1.887092366814613e-07</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -2462,34 +1970,34 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9.990661496748078e-09</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>3236.82865656136</v>
       </c>
       <c r="K4" t="n">
-        <v>4.000000000000028</v>
+        <v>5215</v>
       </c>
       <c r="L4" t="n">
-        <v>89.38312417107429</v>
+        <v>5215</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2817.832999999996</v>
       </c>
       <c r="N4" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>371.9039999999987</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -2611,22 +2119,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>32.5</v>
+        <v>1089.110000000006</v>
       </c>
       <c r="C2" t="n">
-        <v>19.50000000004657</v>
+        <v>1013.860000000003</v>
       </c>
       <c r="D2" t="n">
-        <v>12.99999999995343</v>
+        <v>939.4099999999505</v>
       </c>
       <c r="E2" t="n">
-        <v>12.99999999995343</v>
+        <v>873.7700002281696</v>
       </c>
       <c r="F2" t="n">
-        <v>12.99999999995343</v>
+        <v>896.5520000000041</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>115.7580000087367</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2650,37 +2158,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>412.1519999969266</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1077.25800000007</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1033.910000000003</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1080.249999996777</v>
       </c>
       <c r="S2" t="n">
-        <v>41.59999999974389</v>
+        <v>1021.610000000006</v>
       </c>
       <c r="T2" t="n">
-        <v>88.40000000000001</v>
+        <v>1167.36</v>
       </c>
       <c r="U2" t="n">
-        <v>117.0000000000466</v>
+        <v>1256.8</v>
       </c>
       <c r="V2" t="n">
-        <v>97.5</v>
+        <v>1285.540000000008</v>
       </c>
       <c r="W2" t="n">
-        <v>77.99999999995343</v>
+        <v>1175.590000000006</v>
       </c>
       <c r="X2" t="n">
-        <v>52.00000000004657</v>
+        <v>1017.729999999948</v>
       </c>
       <c r="Y2" t="n">
-        <v>38.99999999997672</v>
+        <v>1064.46</v>
       </c>
     </row>
     <row r="3">
@@ -2688,22 +2196,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.5</v>
+        <v>879.3</v>
       </c>
       <c r="C3" t="n">
-        <v>19.50000000004657</v>
+        <v>811</v>
       </c>
       <c r="D3" t="n">
-        <v>12.99999999995343</v>
+        <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>284.319999996624</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2724,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-1.610242743821194e-09</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -2733,31 +2241,31 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>158.8359999986262</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>887.716</v>
       </c>
       <c r="S3" t="n">
-        <v>62.39999999881256</v>
+        <v>950.8</v>
       </c>
       <c r="T3" t="n">
-        <v>130</v>
+        <v>1103.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1198.5</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>77.99999999995343</v>
+        <v>1129.799999813766</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>977.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.99999999997672</v>
+        <v>906</v>
       </c>
     </row>
     <row r="4">
@@ -2765,22 +2273,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32.5</v>
+        <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>19.50000000004657</v>
+        <v>974.4599999999851</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>966.9799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>356.7399999981581</v>
       </c>
       <c r="G4" t="n">
-        <v>19.50000000004657</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2789,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-2.211869963910431e-09</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2810,31 +2318,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1263.340000000206</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1258.219999999418</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1269.11</v>
       </c>
       <c r="T4" t="n">
-        <v>130</v>
+        <v>1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1451.192134715479</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1384.437865281729</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1456.45</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.99999999997672</v>
+        <v>1236.82</v>
       </c>
     </row>
   </sheetData>
@@ -2935,76 +2443,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>212.4848484850836</v>
+        <v>8050.131313137677</v>
       </c>
       <c r="C2" t="n">
-        <v>192.7878787880669</v>
+        <v>7026.030303036664</v>
       </c>
       <c r="D2" t="n">
-        <v>179.6565656568008</v>
+        <v>6077.131313137668</v>
       </c>
       <c r="E2" t="n">
-        <v>166.5252525255347</v>
+        <v>5194.535353533814</v>
       </c>
       <c r="F2" t="n">
-        <v>153.3939393942686</v>
+        <v>4288.927272725728</v>
       </c>
       <c r="G2" t="n">
-        <v>153.3939393942686</v>
+        <v>4171.999999994398</v>
       </c>
       <c r="H2" t="n">
-        <v>153.3939393942686</v>
+        <v>5442.019519994398</v>
       </c>
       <c r="I2" t="n">
-        <v>153.3939393942686</v>
+        <v>8077.6866199944</v>
       </c>
       <c r="J2" t="n">
-        <v>153.3939393942686</v>
+        <v>11537.7425599944</v>
       </c>
       <c r="K2" t="n">
-        <v>153.3939393942686</v>
+        <v>15085.91310999989</v>
       </c>
       <c r="L2" t="n">
-        <v>266.649939394914</v>
+        <v>18032.47980999989</v>
       </c>
       <c r="M2" t="n">
-        <v>394.0629393953751</v>
+        <v>20060.01268</v>
       </c>
       <c r="N2" t="n">
-        <v>535.632939395375</v>
+        <v>20860</v>
       </c>
       <c r="O2" t="n">
-        <v>643.7409393960896</v>
+        <v>20443.68484848795</v>
       </c>
       <c r="P2" t="n">
-        <v>737.6919393965507</v>
+        <v>19355.54545454849</v>
       </c>
       <c r="Q2" t="n">
-        <v>764</v>
+        <v>18311.19191919495</v>
       </c>
       <c r="R2" t="n">
-        <v>764</v>
+        <v>17220.03030303659</v>
       </c>
       <c r="S2" t="n">
-        <v>721.9797979800567</v>
+        <v>16188.10101010729</v>
       </c>
       <c r="T2" t="n">
-        <v>632.6868686871273</v>
+        <v>15008.94949495577</v>
       </c>
       <c r="U2" t="n">
-        <v>514.5050505052621</v>
+        <v>13739.45454546088</v>
       </c>
       <c r="V2" t="n">
-        <v>416.0202020204136</v>
+        <v>12440.92929293562</v>
       </c>
       <c r="W2" t="n">
-        <v>337.2323232325819</v>
+        <v>11253.46464647096</v>
       </c>
       <c r="X2" t="n">
-        <v>284.7070707072824</v>
+        <v>10225.45454546092</v>
       </c>
       <c r="Y2" t="n">
-        <v>245.3131313133665</v>
+        <v>9150.242424248794</v>
       </c>
     </row>
     <row r="3">
@@ -3012,76 +2520,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>205.3252525252993</v>
+        <v>6029.393939385485</v>
       </c>
       <c r="C3" t="n">
-        <v>185.6282828282826</v>
+        <v>5210.202020193557</v>
       </c>
       <c r="D3" t="n">
-        <v>172.4969696970165</v>
+        <v>4459.191919183457</v>
       </c>
       <c r="E3" t="n">
-        <v>172.4969696970165</v>
+        <v>4171.999999994947</v>
       </c>
       <c r="F3" t="n">
-        <v>172.4969696970165</v>
+        <v>4171.999999994947</v>
       </c>
       <c r="G3" t="n">
-        <v>152.7999999999997</v>
+        <v>5446.04684</v>
       </c>
       <c r="H3" t="n">
-        <v>152.7999999999997</v>
+        <v>5446.04684</v>
       </c>
       <c r="I3" t="n">
-        <v>156.7599999999997</v>
+        <v>5446.04684</v>
       </c>
       <c r="J3" t="n">
-        <v>156.7599999999997</v>
+        <v>5446.04684</v>
       </c>
       <c r="K3" t="n">
-        <v>321.4960000002533</v>
+        <v>5446.046840001726</v>
       </c>
       <c r="L3" t="n">
-        <v>321.4960000002533</v>
+        <v>10608.89684</v>
       </c>
       <c r="M3" t="n">
-        <v>432.8687878775647</v>
+        <v>10608.89684</v>
       </c>
       <c r="N3" t="n">
-        <v>432.8687878775647</v>
+        <v>15488.94141413636</v>
       </c>
       <c r="O3" t="n">
-        <v>550.6787878775647</v>
+        <v>15488.9414141366</v>
       </c>
       <c r="P3" t="n">
-        <v>550.6787878775647</v>
+        <v>15488.9414141366</v>
       </c>
       <c r="Q3" t="n">
-        <v>550.6787878775647</v>
+        <v>15328.50101009759</v>
       </c>
       <c r="R3" t="n">
-        <v>550.6787878775647</v>
+        <v>14431.81818181476</v>
       </c>
       <c r="S3" t="n">
-        <v>487.6484848484611</v>
+        <v>13471.41414141072</v>
       </c>
       <c r="T3" t="n">
-        <v>356.3353535353298</v>
+        <v>12356.76767676425</v>
       </c>
       <c r="U3" t="n">
-        <v>356.3353535353298</v>
+        <v>11146.16161615821</v>
       </c>
       <c r="V3" t="n">
-        <v>356.3353535353298</v>
+        <v>9961.313131309722</v>
       </c>
       <c r="W3" t="n">
-        <v>277.547474747498</v>
+        <v>8820.101010101394</v>
       </c>
       <c r="X3" t="n">
-        <v>277.547474747498</v>
+        <v>7832.727272712995</v>
       </c>
       <c r="Y3" t="n">
-        <v>238.1535353535821</v>
+        <v>6917.575757567303</v>
       </c>
     </row>
     <row r="4">
@@ -3089,76 +2597,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>192.1939393940332</v>
+        <v>7525.212121214949</v>
       </c>
       <c r="C4" t="n">
-        <v>172.4969696970165</v>
+        <v>6540.909090911933</v>
       </c>
       <c r="D4" t="n">
-        <v>172.4969696970165</v>
+        <v>5509.090909093751</v>
       </c>
       <c r="E4" t="n">
-        <v>172.4969696970165</v>
+        <v>4532.343434346276</v>
       </c>
       <c r="F4" t="n">
-        <v>172.4969696970165</v>
+        <v>4172.000000004702</v>
       </c>
       <c r="G4" t="n">
-        <v>152.7999999999997</v>
+        <v>4172.000000004702</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7999999999997</v>
+        <v>4172.000000004288</v>
       </c>
       <c r="I4" t="n">
-        <v>152.7999999999997</v>
+        <v>4172</v>
       </c>
       <c r="J4" t="n">
-        <v>153.7899999999997</v>
+        <v>7376.460370000001</v>
       </c>
       <c r="K4" t="n">
-        <v>157.7499999999997</v>
+        <v>12539.31037</v>
       </c>
       <c r="L4" t="n">
-        <v>246.2392929293633</v>
+        <v>17702.16036999647</v>
       </c>
       <c r="M4" t="n">
-        <v>246.2392929293633</v>
+        <v>20491.81504</v>
       </c>
       <c r="N4" t="n">
-        <v>388.7992929293633</v>
+        <v>20491.81504</v>
       </c>
       <c r="O4" t="n">
-        <v>388.7992929293633</v>
+        <v>20860</v>
       </c>
       <c r="P4" t="n">
-        <v>392.7592929293633</v>
+        <v>20860</v>
       </c>
       <c r="Q4" t="n">
-        <v>394.7392929293633</v>
+        <v>19583.89898989899</v>
       </c>
       <c r="R4" t="n">
-        <v>395.7292929293633</v>
+        <v>18312.9696969697</v>
       </c>
       <c r="S4" t="n">
-        <v>395.7292929293633</v>
+        <v>17031.04040404041</v>
       </c>
       <c r="T4" t="n">
-        <v>264.4161616162319</v>
+        <v>15592.06060606061</v>
       </c>
       <c r="U4" t="n">
-        <v>264.4161616162319</v>
+        <v>14126.20996493387</v>
       </c>
       <c r="V4" t="n">
-        <v>264.4161616162319</v>
+        <v>12727.7878787907</v>
       </c>
       <c r="W4" t="n">
-        <v>264.4161616162319</v>
+        <v>11256.62626262909</v>
       </c>
       <c r="X4" t="n">
-        <v>264.4161616162319</v>
+        <v>9936.494949497775</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.022222222316</v>
+        <v>8687.181818184645</v>
       </c>
     </row>
     <row r="5">
@@ -6832,40 +6340,40 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>31.2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>10.40000000000003</v>
+        <v>86.64365657119833</v>
       </c>
       <c r="L2" t="n">
-        <v>108.8000000002794</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>122.4000000002561</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>112.2000000001863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>98.60000000020955</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.97379858934281</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>33.8</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -6921,25 +6429,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>111.4977655326378</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>28.6</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -7001,13 +6509,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>89.38312417107427</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>23.4</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -7156,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.360000001499429</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -7171,19 +6679,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.200000000186265</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>8.100000000209548</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.800000000279397</v>
+        <v>4.800000003073251</v>
       </c>
       <c r="P2" t="n">
-        <v>6.900000000256114</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -7192,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.400000000256114</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -7227,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.000000003376044</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -7239,13 +6747,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -7263,13 +6771,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>11.6000000013737</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4000000011874363</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -7319,10 +6827,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -7331,19 +6839,19 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -7378,7 +6886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7387,77 +6895,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="n">
-        <v>23</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -7465,230 +6926,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3375040.953502008</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1001800</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>415127.3853181818</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>198320</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>15.59999999999997</v>
-      </c>
-      <c r="L2" t="n">
-        <v>19.20000000018626</v>
-      </c>
-      <c r="M2" t="n">
-        <v>21.59999999999998</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20.40000000025611</v>
-      </c>
-      <c r="P2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>15.59999999999997</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>22.40000000025611</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>24.39999999999995</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
+        <v>503020.8429197955</v>
       </c>
     </row>
   </sheetData>

--- a/model/Output Files/Year 12.xlsx
+++ b/model/Output Files/Year 12.xlsx
@@ -15,10 +15,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 1" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 2" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 3" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Feed in from Type 4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Costs and Revenues" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacities" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Connected Households" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Yearly demand" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -523,22 +524,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="C2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="D2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="E2" t="n">
-        <v>122.3999999966575</v>
+        <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>81.07799999999592</v>
+        <v>73.0036444022288</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -562,37 +563,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="P2" t="n">
-        <v>61.20999999993001</v>
+        <v>111</v>
       </c>
       <c r="Q2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="R2" t="n">
-        <v>61.21000000322328</v>
+        <v>111.0000000038858</v>
       </c>
       <c r="S2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="T2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="U2" t="n">
-        <v>122.4</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>61.20999999999185</v>
+        <v>111</v>
       </c>
       <c r="W2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="X2" t="n">
-        <v>122.4</v>
+        <v>111</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3">
@@ -648,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.699902441032465e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.666649040998892e-09</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -680,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>111.7600000000148</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>55.50999999998123</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -722,31 +723,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>55.5099999999948</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>79.25100000051182</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>55.50999999951455</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>69.78786528452065</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>113.8221347182706</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>55.50999999999476</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -755,6 +756,72 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Revenues</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Total Capital Costs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Variable Costs</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Total Operation Fixed Costs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Total Profits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3384558.627222768</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1027600</v>
+      </c>
+      <c r="D2" t="n">
+        <v>430185.638016375</v>
+      </c>
+      <c r="E2" t="n">
+        <v>182735</v>
+      </c>
+      <c r="F2" t="n">
+        <v>498517.2552483752</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -795,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -811,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11211</v>
+        <v>10198</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -824,13 +891,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5009</v>
+        <v>5138</v>
       </c>
       <c r="C4" t="n">
-        <v>5215</v>
+        <v>5213</v>
       </c>
       <c r="D4" t="n">
-        <v>5143</v>
+        <v>5179</v>
       </c>
     </row>
   </sheetData>
@@ -838,13 +905,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,16 +1036,16 @@
         <v>510</v>
       </c>
       <c r="G3" t="n">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="H3" t="n">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="I3" t="n">
         <v>510</v>
       </c>
       <c r="J3" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K3" t="n">
         <v>510</v>
@@ -1019,16 +1086,16 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="n">
         <v>40</v>
       </c>
       <c r="J4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" t="n">
         <v>40</v>
@@ -1047,6 +1114,56 @@
       </c>
       <c r="P4" t="n">
         <v>40</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1156,43 +1273,43 @@
         <v>-1061.81</v>
       </c>
       <c r="E2" t="n">
-        <v>-996.17</v>
+        <v>-1031.17</v>
       </c>
       <c r="F2" t="n">
         <v>-977.63</v>
       </c>
       <c r="G2" t="n">
-        <v>-866.895</v>
+        <v>-858.895</v>
       </c>
       <c r="H2" t="n">
-        <v>-775.78</v>
+        <v>-752.78</v>
       </c>
       <c r="I2" t="n">
-        <v>-566.6700000000001</v>
+        <v>-528.6700000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>-390.5800000000002</v>
+        <v>-343.5800000000002</v>
       </c>
       <c r="K2" t="n">
-        <v>-468.3050000000001</v>
+        <v>-420.3050000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>-559.8699999999999</v>
+        <v>-516.8699999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>-699.625</v>
+        <v>-667.625</v>
       </c>
       <c r="N2" t="n">
-        <v>-920.71</v>
+        <v>-901.71</v>
       </c>
       <c r="O2" t="n">
-        <v>-1118.445</v>
+        <v>-1111.445</v>
       </c>
       <c r="P2" t="n">
         <v>-1160.89</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1156.31</v>
+        <v>-1191.31</v>
       </c>
       <c r="R2" t="n">
         <v>-1141.46</v>
@@ -1233,43 +1350,43 @@
         <v>-743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-620.6500000000001</v>
+        <v>-651.6500000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-335.1400000000001</v>
+        <v>-316.1400000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>27.27000000000005</v>
+        <v>69.27000000000005</v>
       </c>
       <c r="H3" t="n">
-        <v>193.87</v>
+        <v>254.87</v>
       </c>
       <c r="I3" t="n">
-        <v>379.3449999999998</v>
+        <v>454.3449999999998</v>
       </c>
       <c r="J3" t="n">
-        <v>534.7799999999999</v>
+        <v>618.7799999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>483.6749999999999</v>
+        <v>570.675</v>
       </c>
       <c r="L3" t="n">
-        <v>452.2999999999998</v>
+        <v>538.2999999999998</v>
       </c>
       <c r="M3" t="n">
-        <v>367.57</v>
+        <v>445.57</v>
       </c>
       <c r="N3" t="n">
-        <v>149.0700000000001</v>
+        <v>215.0700000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>-161.885</v>
+        <v>-112.885</v>
       </c>
       <c r="P3" t="n">
-        <v>-461.76</v>
+        <v>-434.76</v>
       </c>
       <c r="Q3" t="n">
-        <v>-820.285</v>
+        <v>-847.285</v>
       </c>
       <c r="R3" t="n">
         <v>-932.5600000000001</v>
@@ -1310,43 +1427,43 @@
         <v>-1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-966.9799999999999</v>
+        <v>-1001.98</v>
       </c>
       <c r="F4" t="n">
-        <v>-861.235</v>
+        <v>-856.235</v>
       </c>
       <c r="G4" t="n">
-        <v>-428.7049999999999</v>
+        <v>-396.7049999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>-144.71</v>
+        <v>-85.70999999999998</v>
       </c>
       <c r="I4" t="n">
-        <v>96.98000000000013</v>
+        <v>172.9800000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>278.04</v>
+        <v>364.04</v>
       </c>
       <c r="K4" t="n">
-        <v>230.71</v>
+        <v>320.71</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8149999999999</v>
+        <v>275.8149999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>79.84499999999994</v>
+        <v>158.8449999999999</v>
       </c>
       <c r="N4" t="n">
-        <v>-180.765</v>
+        <v>-115.765</v>
       </c>
       <c r="O4" t="n">
-        <v>-573.1600000000001</v>
+        <v>-530.1600000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>-991.62</v>
+        <v>-976.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1263.34</v>
+        <v>-1298.34</v>
       </c>
       <c r="R4" t="n">
         <v>-1258.22</v>
@@ -1486,34 +1603,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>751.1370000000002</v>
+        <v>683.2660000000293</v>
       </c>
       <c r="H2" t="n">
-        <v>2107.668000000001</v>
+        <v>1917.224000000059</v>
       </c>
       <c r="I2" t="n">
-        <v>3475.410000000001</v>
+        <v>3161.38</v>
       </c>
       <c r="J2" t="n">
-        <v>4327.446000000001</v>
+        <v>3936.428</v>
       </c>
       <c r="K2" t="n">
-        <v>4450.767000000001</v>
+        <v>4048.606000000234</v>
       </c>
       <c r="L2" t="n">
-        <v>3923.85</v>
+        <v>3569.3</v>
       </c>
       <c r="M2" t="n">
-        <v>2948.493</v>
+        <v>2682.074</v>
       </c>
       <c r="N2" t="n">
-        <v>1771.338</v>
+        <v>1611.284000000059</v>
       </c>
       <c r="O2" t="n">
-        <v>706.2930000000001</v>
+        <v>642.4740000000293</v>
       </c>
       <c r="P2" t="n">
-        <v>22.422</v>
+        <v>20.39600000000091</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1557,34 +1674,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>336.33</v>
+        <v>305.9400000000146</v>
       </c>
       <c r="F3" t="n">
-        <v>462</v>
+        <v>1590.888000000059</v>
       </c>
       <c r="G3" t="n">
-        <v>1790.916000005104</v>
+        <v>504</v>
       </c>
       <c r="H3" t="n">
-        <v>630</v>
+        <v>661.6654129136072</v>
       </c>
       <c r="I3" t="n">
-        <v>646.8</v>
+        <v>5859.8</v>
       </c>
       <c r="J3" t="n">
         <v>672</v>
       </c>
       <c r="K3" t="n">
-        <v>798.0000000017436</v>
+        <v>6011</v>
       </c>
       <c r="L3" t="n">
-        <v>6013</v>
+        <v>798</v>
       </c>
       <c r="M3" t="n">
         <v>756</v>
       </c>
       <c r="N3" t="n">
-        <v>5685.337953673023</v>
+        <v>756</v>
       </c>
       <c r="O3" t="n">
         <v>739.2</v>
@@ -1593,10 +1710,10 @@
         <v>672</v>
       </c>
       <c r="Q3" t="n">
-        <v>661.4490000000001</v>
+        <v>601.6820000000292</v>
       </c>
       <c r="R3" t="n">
-        <v>44.84400000000001</v>
+        <v>40.79200000000183</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -1637,34 +1754,34 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>504.495000001842</v>
+        <v>458.9100000000146</v>
       </c>
       <c r="G4" t="n">
-        <v>677.88</v>
+        <v>2702.47</v>
       </c>
       <c r="H4" t="n">
-        <v>805.5599999995819</v>
+        <v>805.5599999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>824.0400000099906</v>
+        <v>5223.551010101011</v>
       </c>
       <c r="J4" t="n">
-        <v>4087.748656565572</v>
+        <v>850.9200000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>6193.6</v>
+        <v>978.6</v>
       </c>
       <c r="L4" t="n">
-        <v>6195.280000000001</v>
+        <v>6193.28</v>
       </c>
       <c r="M4" t="n">
-        <v>3756.952999999997</v>
+        <v>6152.12</v>
       </c>
       <c r="N4" t="n">
         <v>940.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1297.583999999999</v>
+        <v>925.6800000000001</v>
       </c>
       <c r="P4" t="n">
         <v>1018.26</v>
@@ -1804,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.248270902782679e-07</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -1813,25 +1930,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1282.848000000001</v>
+        <v>1164.444</v>
       </c>
       <c r="I2" t="n">
-        <v>2662.290000000001</v>
+        <v>2632.71</v>
       </c>
       <c r="J2" t="n">
-        <v>3495.006000000001</v>
+        <v>3592.848</v>
       </c>
       <c r="K2" t="n">
-        <v>3584.010656571199</v>
+        <v>3628.301000000787</v>
       </c>
       <c r="L2" t="n">
-        <v>2976.330000000001</v>
+        <v>3052.429999999999</v>
       </c>
       <c r="M2" t="n">
-        <v>2048.013000000113</v>
+        <v>2014.449</v>
       </c>
       <c r="N2" t="n">
-        <v>808.0680000000003</v>
+        <v>709.5740000000001</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1884,31 +2001,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1128.888</v>
       </c>
       <c r="G3" t="n">
-        <v>1286.916000005104</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>31.66541291360717</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5213</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.743657519156584e-09</v>
+        <v>5213</v>
       </c>
       <c r="L3" t="n">
-        <v>5215</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4929.337953669746</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1935,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>-1.887092366814613e-07</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -1964,31 +2081,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2024.59</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.990661496748078e-09</v>
+        <v>4399.511010101011</v>
       </c>
       <c r="J4" t="n">
-        <v>3236.82865656136</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5215</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>5215</v>
+        <v>5213</v>
       </c>
       <c r="M4" t="n">
-        <v>2817.832999999996</v>
+        <v>5213</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>371.9039999999987</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2119,22 +2236,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1089.110000000006</v>
+        <v>1100.51</v>
       </c>
       <c r="C2" t="n">
-        <v>1013.860000000003</v>
+        <v>1025.26</v>
       </c>
       <c r="D2" t="n">
-        <v>939.4099999999505</v>
+        <v>950.8100000000002</v>
       </c>
       <c r="E2" t="n">
-        <v>873.7700002281696</v>
+        <v>920.1700000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>896.5520000000041</v>
+        <v>904.6263555977712</v>
       </c>
       <c r="G2" t="n">
-        <v>115.7580000087367</v>
+        <v>64.62899999992101</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -2158,37 +2275,37 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>412.1519999969266</v>
+        <v>357.9710000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>1077.25800000007</v>
+        <v>1029.494</v>
       </c>
       <c r="Q2" t="n">
-        <v>1033.910000000003</v>
+        <v>1080.309999999997</v>
       </c>
       <c r="R2" t="n">
-        <v>1080.249999996777</v>
+        <v>1030.459999993656</v>
       </c>
       <c r="S2" t="n">
-        <v>1021.610000000006</v>
+        <v>1033.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1167.36</v>
+        <v>1178.76</v>
       </c>
       <c r="U2" t="n">
-        <v>1256.8</v>
+        <v>1379.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1285.540000000008</v>
+        <v>1235.75</v>
       </c>
       <c r="W2" t="n">
-        <v>1175.590000000006</v>
+        <v>1186.99</v>
       </c>
       <c r="X2" t="n">
-        <v>1017.729999999948</v>
+        <v>1029.13</v>
       </c>
       <c r="Y2" t="n">
-        <v>1064.46</v>
+        <v>953.46</v>
       </c>
     </row>
     <row r="3">
@@ -2205,7 +2322,7 @@
         <v>743.5</v>
       </c>
       <c r="E3" t="n">
-        <v>284.319999996624</v>
+        <v>345.709999996624</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -2232,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.610242743821194e-09</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -2241,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.8359999986262</v>
+        <v>245.603</v>
       </c>
       <c r="R3" t="n">
-        <v>887.716</v>
+        <v>891.768</v>
       </c>
       <c r="S3" t="n">
         <v>950.8</v>
@@ -2259,7 +2376,7 @@
         <v>1173</v>
       </c>
       <c r="W3" t="n">
-        <v>1129.799999813766</v>
+        <v>1129.8</v>
       </c>
       <c r="X3" t="n">
         <v>977.5</v>
@@ -2276,16 +2393,16 @@
         <v>1150.35</v>
       </c>
       <c r="C4" t="n">
-        <v>974.4599999999851</v>
+        <v>1086.22</v>
       </c>
       <c r="D4" t="n">
         <v>1021.5</v>
       </c>
       <c r="E4" t="n">
-        <v>966.9799999999999</v>
+        <v>946.4700000000051</v>
       </c>
       <c r="F4" t="n">
-        <v>356.7399999981581</v>
+        <v>397.325</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2297,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.211869963910431e-09</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2318,31 +2435,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1263.340000000206</v>
+        <v>1242.830000000005</v>
       </c>
       <c r="R4" t="n">
-        <v>1258.219999999418</v>
+        <v>1178.968999999488</v>
       </c>
       <c r="S4" t="n">
-        <v>1269.11</v>
+        <v>1213.6</v>
       </c>
       <c r="T4" t="n">
         <v>1424.59</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.192134715479</v>
+        <v>1520.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1384.437865281729</v>
+        <v>1498.26</v>
       </c>
       <c r="W4" t="n">
-        <v>1456.45</v>
+        <v>1400.940000000005</v>
       </c>
       <c r="X4" t="n">
         <v>1306.93</v>
       </c>
       <c r="Y4" t="n">
-        <v>1236.82</v>
+        <v>1125.819999999996</v>
       </c>
     </row>
   </sheetData>
@@ -2443,76 +2560,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8050.131313137677</v>
+        <v>8074.940763216146</v>
       </c>
       <c r="C2" t="n">
-        <v>7026.030303036664</v>
+        <v>7039.324601603002</v>
       </c>
       <c r="D2" t="n">
-        <v>6077.131313137668</v>
+        <v>6078.91046019969</v>
       </c>
       <c r="E2" t="n">
-        <v>5194.535353533814</v>
+        <v>5149.445813735043</v>
       </c>
       <c r="F2" t="n">
-        <v>4288.927272725728</v>
+        <v>4235.681818181739</v>
       </c>
       <c r="G2" t="n">
-        <v>4171.999999994398</v>
+        <v>4170.399999998041</v>
       </c>
       <c r="H2" t="n">
-        <v>5442.019519994398</v>
+        <v>5323.199559895227</v>
       </c>
       <c r="I2" t="n">
-        <v>8077.6866199944</v>
+        <v>7929.582460000001</v>
       </c>
       <c r="J2" t="n">
-        <v>11537.7425599944</v>
+        <v>11486.50198</v>
       </c>
       <c r="K2" t="n">
-        <v>15085.91310999989</v>
+        <v>15078.51997000078</v>
       </c>
       <c r="L2" t="n">
-        <v>18032.47980999989</v>
+        <v>18100.4256699139</v>
       </c>
       <c r="M2" t="n">
-        <v>20060.01268</v>
+        <v>20094.73017991937</v>
       </c>
       <c r="N2" t="n">
-        <v>20860</v>
+        <v>20797.20844000078</v>
       </c>
       <c r="O2" t="n">
-        <v>20443.68484848795</v>
+        <v>20435.62157124863</v>
       </c>
       <c r="P2" t="n">
-        <v>19355.54545454849</v>
+        <v>19395.72864202098</v>
       </c>
       <c r="Q2" t="n">
-        <v>18311.19191919495</v>
+        <v>18304.50641979876</v>
       </c>
       <c r="R2" t="n">
-        <v>17220.03030303659</v>
+        <v>17263.63773288246</v>
       </c>
       <c r="S2" t="n">
-        <v>16188.10101010729</v>
+        <v>16220.19328848252</v>
       </c>
       <c r="T2" t="n">
-        <v>15008.94949495577</v>
+        <v>15029.52662181585</v>
       </c>
       <c r="U2" t="n">
-        <v>13739.45454546088</v>
+        <v>13636.39530865083</v>
       </c>
       <c r="V2" t="n">
-        <v>12440.92929293562</v>
+        <v>12388.16298545222</v>
       </c>
       <c r="W2" t="n">
-        <v>11253.46464647096</v>
+        <v>11189.18318747242</v>
       </c>
       <c r="X2" t="n">
-        <v>10225.45454546092</v>
+        <v>10149.65793494717</v>
       </c>
       <c r="Y2" t="n">
-        <v>9150.242424248794</v>
+        <v>9186.567025838465</v>
       </c>
     </row>
     <row r="3">
@@ -2520,76 +2637,76 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6029.393939385485</v>
+        <v>6089.804040400631</v>
       </c>
       <c r="C3" t="n">
-        <v>5210.202020193557</v>
+        <v>5270.612121208711</v>
       </c>
       <c r="D3" t="n">
-        <v>4459.191919183457</v>
+        <v>4519.60202019861</v>
       </c>
       <c r="E3" t="n">
-        <v>4171.999999994947</v>
+        <v>4170.4</v>
       </c>
       <c r="F3" t="n">
-        <v>4171.999999994947</v>
+        <v>5287.99912</v>
       </c>
       <c r="G3" t="n">
-        <v>5446.04684</v>
+        <v>5287.999119993005</v>
       </c>
       <c r="H3" t="n">
-        <v>5446.04684</v>
+        <v>5319.347878784472</v>
       </c>
       <c r="I3" t="n">
-        <v>5446.04684</v>
+        <v>10480.21787878447</v>
       </c>
       <c r="J3" t="n">
-        <v>5446.04684</v>
+        <v>10480.21787876822</v>
       </c>
       <c r="K3" t="n">
-        <v>5446.046840001726</v>
+        <v>15641.08787878447</v>
       </c>
       <c r="L3" t="n">
-        <v>10608.89684</v>
+        <v>15641.08787876114</v>
       </c>
       <c r="M3" t="n">
-        <v>10608.89684</v>
+        <v>15641.08787878447</v>
       </c>
       <c r="N3" t="n">
-        <v>15488.94141413636</v>
+        <v>15641.08787875545</v>
       </c>
       <c r="O3" t="n">
-        <v>15488.9414141366</v>
+        <v>15641.08787875261</v>
       </c>
       <c r="P3" t="n">
-        <v>15488.9414141366</v>
+        <v>15641.08787878447</v>
       </c>
       <c r="Q3" t="n">
-        <v>15328.50101009759</v>
+        <v>15393.00404036307</v>
       </c>
       <c r="R3" t="n">
-        <v>14431.81818181476</v>
+        <v>14492.22828282488</v>
       </c>
       <c r="S3" t="n">
-        <v>13471.41414141072</v>
+        <v>13531.82424242083</v>
       </c>
       <c r="T3" t="n">
-        <v>12356.76767676425</v>
+        <v>12417.17777772748</v>
       </c>
       <c r="U3" t="n">
-        <v>11146.16161615821</v>
+        <v>11206.57171716831</v>
       </c>
       <c r="V3" t="n">
-        <v>9961.313131309722</v>
+        <v>10021.72323231982</v>
       </c>
       <c r="W3" t="n">
-        <v>8820.101010101394</v>
+        <v>8880.511111051892</v>
       </c>
       <c r="X3" t="n">
-        <v>7832.727272712995</v>
+        <v>7893.137373674886</v>
       </c>
       <c r="Y3" t="n">
-        <v>6917.575757567303</v>
+        <v>6977.98585858245</v>
       </c>
     </row>
     <row r="4">
@@ -2597,76 +2714,76 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7525.212121214949</v>
+        <v>7656.77878786572</v>
       </c>
       <c r="C4" t="n">
-        <v>6540.909090911933</v>
+        <v>6559.586868686888</v>
       </c>
       <c r="D4" t="n">
-        <v>5509.090909093751</v>
+        <v>5527.768686868706</v>
       </c>
       <c r="E4" t="n">
-        <v>4532.343434346276</v>
+        <v>4571.738383836323</v>
       </c>
       <c r="F4" t="n">
-        <v>4172.000000004702</v>
+        <v>4170.4</v>
       </c>
       <c r="G4" t="n">
-        <v>4172.000000004702</v>
+        <v>6174.744100000001</v>
       </c>
       <c r="H4" t="n">
-        <v>4172.000000004288</v>
+        <v>6174.744099997056</v>
       </c>
       <c r="I4" t="n">
-        <v>4172</v>
+        <v>10530.26</v>
       </c>
       <c r="J4" t="n">
-        <v>7376.460370000001</v>
+        <v>10530.26</v>
       </c>
       <c r="K4" t="n">
-        <v>12539.31037</v>
+        <v>10530.26</v>
       </c>
       <c r="L4" t="n">
-        <v>17702.16036999647</v>
+        <v>15691.13</v>
       </c>
       <c r="M4" t="n">
-        <v>20491.81504</v>
+        <v>20851.99999997681</v>
       </c>
       <c r="N4" t="n">
-        <v>20491.81504</v>
+        <v>20851.99999997977</v>
       </c>
       <c r="O4" t="n">
-        <v>20860</v>
+        <v>20851.99999998292</v>
       </c>
       <c r="P4" t="n">
-        <v>20860</v>
+        <v>20851.999999986</v>
       </c>
       <c r="Q4" t="n">
-        <v>19583.89898989899</v>
+        <v>19596.6161616077</v>
       </c>
       <c r="R4" t="n">
-        <v>18312.9696969697</v>
+        <v>18405.73838383539</v>
       </c>
       <c r="S4" t="n">
-        <v>17031.04040404041</v>
+        <v>17179.87979797982</v>
       </c>
       <c r="T4" t="n">
-        <v>15592.06060606061</v>
+        <v>15740.9</v>
       </c>
       <c r="U4" t="n">
-        <v>14126.20996493387</v>
+        <v>14204.55656565659</v>
       </c>
       <c r="V4" t="n">
-        <v>12727.7878787907</v>
+        <v>12691.16262626265</v>
       </c>
       <c r="W4" t="n">
-        <v>11256.62626262909</v>
+        <v>11276.07171715927</v>
       </c>
       <c r="X4" t="n">
-        <v>9936.494949497775</v>
+        <v>9955.940404025128</v>
       </c>
       <c r="Y4" t="n">
-        <v>8687.181818184645</v>
+        <v>8818.748484830907</v>
       </c>
     </row>
     <row r="5">
@@ -6346,19 +6463,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>146.3699999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>311.1</v>
       </c>
       <c r="K2" t="n">
-        <v>86.64365657119833</v>
+        <v>349.0949999999997</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>268.7699999999998</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>116.5350000000001</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -6664,31 +6781,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.360000001499429</v>
+        <v>6.359999999999996</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49.03999999999998</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>100.08</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>130.7599999994409</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>118.88</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>84.31999999999995</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>42.56000000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>4.800000003073251</v>
+        <v>4.8</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -6771,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>11.6000000013737</v>
+        <v>11.6</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -6886,7 +7003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6895,30 +7012,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Total Revenues</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Total Capital Costs</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Variable Costs</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Total Operation Fixed Costs</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Total Profits</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -6926,19 +7090,230 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3375040.953502008</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1001800</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>415127.3853181818</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>198320</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>503020.8429197955</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23</v>
+      </c>
+      <c r="I2" t="n">
+        <v>38</v>
+      </c>
+      <c r="J2" t="n">
+        <v>47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>48</v>
+      </c>
+      <c r="L2" t="n">
+        <v>43</v>
+      </c>
+      <c r="M2" t="n">
+        <v>32</v>
+      </c>
+      <c r="N2" t="n">
+        <v>19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>7</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
